--- a/outputs/monthly_analytics_output.xlsx
+++ b/outputs/monthly_analytics_output.xlsx
@@ -19,7 +19,7 @@
     <t>client_id</t>
   </si>
   <si>
-    <t>wisdom_tree_id</t>
+    <t>product_id</t>
   </si>
   <si>
     <t>month_date</t>
@@ -480,13 +480,13 @@
       <c r="C2" s="2">
         <v>44957</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2">
         <v>169624467</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2">
@@ -509,13 +509,13 @@
       <c r="C3" s="2">
         <v>44985</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3">
         <v>146680349.2847951</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3">
@@ -547,13 +547,13 @@
       <c r="C4" s="2">
         <v>45016</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4">
         <v>143811899.6133542</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4">
@@ -585,13 +585,13 @@
       <c r="C5" s="2">
         <v>45046</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5">
         <v>142820273.736001</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5">
@@ -623,13 +623,13 @@
       <c r="C6" s="2">
         <v>45077</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6">
         <v>140217663.790661</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6">
@@ -661,13 +661,13 @@
       <c r="C7" s="2">
         <v>45107</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7">
         <v>139349164.3248313</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7">
@@ -699,13 +699,13 @@
       <c r="C8" s="2">
         <v>45138</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8">
         <v>130778900.2273137</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8">
@@ -737,13 +737,13 @@
       <c r="C9" s="2">
         <v>45169</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9">
         <v>128158260.995428</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9">
@@ -775,13 +775,13 @@
       <c r="C10" s="2">
         <v>45199</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10">
         <v>116809439.7156017</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10">
@@ -813,13 +813,13 @@
       <c r="C11" s="2">
         <v>45230</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11">
         <v>111740243.8542421</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11">
@@ -851,13 +851,13 @@
       <c r="C12" s="2">
         <v>45260</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12">
         <v>112658043.021572</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12">
@@ -889,13 +889,13 @@
       <c r="C13" s="2">
         <v>45291</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13">
         <v>99828143.548085</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13">
@@ -927,13 +927,13 @@
       <c r="C14" s="2">
         <v>45322</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14">
         <v>91081596.87060952</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14">
@@ -965,13 +965,13 @@
       <c r="C15" s="2">
         <v>45351</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15">
         <v>84415114.41185018</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15">
@@ -1003,13 +1003,13 @@
       <c r="C16" s="2">
         <v>45382</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16">
         <v>73616942.15045744</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16">
@@ -1041,13 +1041,13 @@
       <c r="C17" s="2">
         <v>45412</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17">
         <v>69881824.2976242</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17">
@@ -1079,13 +1079,13 @@
       <c r="C18" s="2">
         <v>45443</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18">
         <v>62433416.60234725</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18">
@@ -1117,13 +1117,13 @@
       <c r="C19" s="2">
         <v>45473</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19">
         <v>62825941.71416688</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19">
@@ -1155,13 +1155,13 @@
       <c r="C20" s="2">
         <v>45504</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20">
         <v>57470407.78030978</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20">
@@ -1193,13 +1193,13 @@
       <c r="C21" s="2">
         <v>45535</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21">
         <v>49655810.10574076</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21">
@@ -1231,13 +1231,13 @@
       <c r="C22" s="2">
         <v>45565</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22">
         <v>42730308.39653177</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22">
@@ -1269,13 +1269,13 @@
       <c r="C23" s="2">
         <v>45596</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23">
         <v>42414570.43100706</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23">
@@ -1307,13 +1307,13 @@
       <c r="C24" s="2">
         <v>45626</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24">
         <v>42414570.43100706</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24">
@@ -1345,13 +1345,13 @@
       <c r="C25" s="2">
         <v>45657</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25">
         <v>42414570.43100706</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25">
@@ -1383,13 +1383,13 @@
       <c r="C26" s="2">
         <v>44957</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26">
         <v>445204271</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26">
@@ -1412,13 +1412,13 @@
       <c r="C27" s="2">
         <v>44985</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27">
         <v>387525361.7336233</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="G27">
@@ -1450,13 +1450,13 @@
       <c r="C28" s="2">
         <v>45016</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28">
         <v>356825077.595078</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28">
@@ -1488,13 +1488,13 @@
       <c r="C29" s="2">
         <v>45046</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29">
         <v>305726008.5423632</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29">
@@ -1526,13 +1526,13 @@
       <c r="C30" s="2">
         <v>45077</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30">
         <v>293356392.655597</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30">
@@ -1564,13 +1564,13 @@
       <c r="C31" s="2">
         <v>45107</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31">
         <v>291723242.9051901</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="G31">
@@ -1602,13 +1602,13 @@
       <c r="C32" s="2">
         <v>45138</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32">
         <v>287044609.2065312</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="G32">
@@ -1640,13 +1640,13 @@
       <c r="C33" s="2">
         <v>45169</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33">
         <v>249837633.1424617</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="G33">
@@ -1678,13 +1678,13 @@
       <c r="C34" s="2">
         <v>45199</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34">
         <v>217409553.2957649</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="b">
         <v>1</v>
       </c>
       <c r="G34">
@@ -1716,13 +1716,13 @@
       <c r="C35" s="2">
         <v>45230</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35">
         <v>213093868.6913986</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35">
@@ -1754,13 +1754,13 @@
       <c r="C36" s="2">
         <v>45260</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36">
         <v>212642255.4324472</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36">
@@ -1792,13 +1792,13 @@
       <c r="C37" s="2">
         <v>45291</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37">
         <v>196419176.5776561</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="b">
         <v>1</v>
       </c>
       <c r="G37">
@@ -1830,13 +1830,13 @@
       <c r="C38" s="2">
         <v>45322</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38">
         <v>182637499.4382453</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38">
@@ -1868,13 +1868,13 @@
       <c r="C39" s="2">
         <v>45351</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39">
         <v>164542127.8672765</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39">
@@ -1906,13 +1906,13 @@
       <c r="C40" s="2">
         <v>45382</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40">
         <v>163403894.3568478</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="G40">
@@ -1944,13 +1944,13 @@
       <c r="C41" s="2">
         <v>45412</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41">
         <v>155754053.5964113</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41">
@@ -1982,13 +1982,13 @@
       <c r="C42" s="2">
         <v>45443</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42">
         <v>139574361.8128498</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42">
@@ -2020,13 +2020,13 @@
       <c r="C43" s="2">
         <v>45473</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43">
         <v>137841655.719464</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="b">
         <v>1</v>
       </c>
       <c r="G43">
@@ -2058,13 +2058,13 @@
       <c r="C44" s="2">
         <v>45504</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44">
         <v>124382296.6775341</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44">
@@ -2096,13 +2096,13 @@
       <c r="C45" s="2">
         <v>45535</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45">
         <v>105996285.1689219</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="b">
         <v>1</v>
       </c>
       <c r="G45">
@@ -2134,13 +2134,13 @@
       <c r="C46" s="2">
         <v>45565</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46">
         <v>95570093.24707511</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="G46">
@@ -2172,13 +2172,13 @@
       <c r="C47" s="2">
         <v>45596</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47">
         <v>89711366.41457184</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="G47">
@@ -2210,13 +2210,13 @@
       <c r="C48" s="2">
         <v>45626</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48">
         <v>78382148.02061492</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48">
@@ -2248,13 +2248,13 @@
       <c r="C49" s="2">
         <v>45657</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49">
         <v>78382148.02061492</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="G49">
@@ -2286,13 +2286,13 @@
       <c r="C50" s="2">
         <v>44957</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50">
         <v>614252731</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50">
@@ -2315,13 +2315,13 @@
       <c r="C51" s="2">
         <v>44985</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51">
         <v>553567245.8608881</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="b">
         <v>0</v>
       </c>
       <c r="G51">
@@ -2353,13 +2353,13 @@
       <c r="C52" s="2">
         <v>45016</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52">
         <v>512732695.5704544</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52">
@@ -2391,13 +2391,13 @@
       <c r="C53" s="2">
         <v>45046</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53">
         <v>461935577.8721215</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="b">
         <v>1</v>
       </c>
       <c r="G53">
@@ -2429,13 +2429,13 @@
       <c r="C54" s="2">
         <v>45077</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54">
         <v>428789724.9460019</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54">
@@ -2467,13 +2467,13 @@
       <c r="C55" s="2">
         <v>45107</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55">
         <v>423442298.3657047</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55">
@@ -2505,13 +2505,13 @@
       <c r="C56" s="2">
         <v>45138</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56">
         <v>400054826.2328796</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56">
@@ -2543,13 +2543,13 @@
       <c r="C57" s="2">
         <v>45169</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57">
         <v>384510537.3977219</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="G57">
@@ -2581,13 +2581,13 @@
       <c r="C58" s="2">
         <v>45199</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58">
         <v>384196022.7806718</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="b">
         <v>1</v>
       </c>
       <c r="G58">
@@ -2619,13 +2619,13 @@
       <c r="C59" s="2">
         <v>45230</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59">
         <v>338148711.6139936</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="G59">
@@ -2657,13 +2657,13 @@
       <c r="C60" s="2">
         <v>45260</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60">
         <v>323492918.2145883</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="G60">
@@ -2695,13 +2695,13 @@
       <c r="C61" s="2">
         <v>45291</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61">
         <v>281157374.0120607</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61">
@@ -2733,13 +2733,13 @@
       <c r="C62" s="2">
         <v>45322</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62">
         <v>264744209.6428519</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="b">
         <v>1</v>
       </c>
       <c r="G62">
@@ -2771,13 +2771,13 @@
       <c r="C63" s="2">
         <v>45351</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63">
         <v>235907994.8382592</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="G63">
@@ -2809,13 +2809,13 @@
       <c r="C64" s="2">
         <v>45382</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64">
         <v>230872611.1455424</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="b">
         <v>1</v>
       </c>
       <c r="G64">
@@ -2847,13 +2847,13 @@
       <c r="C65" s="2">
         <v>45412</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65">
         <v>211975695.6239689</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="G65">
@@ -2885,13 +2885,13 @@
       <c r="C66" s="2">
         <v>45443</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66">
         <v>213915160.1353611</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66">
@@ -2923,13 +2923,13 @@
       <c r="C67" s="2">
         <v>45473</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67">
         <v>184993845.4741456</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="b">
         <v>1</v>
       </c>
       <c r="G67">
@@ -2961,13 +2961,13 @@
       <c r="C68" s="2">
         <v>45504</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68">
         <v>180342296.962757</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="b">
         <v>0</v>
       </c>
       <c r="G68">
@@ -2999,13 +2999,13 @@
       <c r="C69" s="2">
         <v>45535</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69">
         <v>172730459.3135088</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="b">
         <v>1</v>
       </c>
       <c r="G69">
@@ -3037,13 +3037,13 @@
       <c r="C70" s="2">
         <v>45565</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70">
         <v>168032158.5013647</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="b">
         <v>0</v>
       </c>
       <c r="G70">
@@ -3075,13 +3075,13 @@
       <c r="C71" s="2">
         <v>45596</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71">
         <v>151095317.9805191</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="b">
         <v>0</v>
       </c>
       <c r="G71">
@@ -3113,13 +3113,13 @@
       <c r="C72" s="2">
         <v>45626</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72">
         <v>140326561.0093574</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="b">
         <v>1</v>
       </c>
       <c r="G72">
@@ -3151,13 +3151,13 @@
       <c r="C73" s="2">
         <v>45657</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="b">
         <v>1</v>
       </c>
       <c r="E73">
         <v>140326561.0093574</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="b">
         <v>0</v>
       </c>
       <c r="G73">
@@ -3189,13 +3189,13 @@
       <c r="C74" s="2">
         <v>44957</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74">
         <v>86900577</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="b">
         <v>0</v>
       </c>
       <c r="G74">
@@ -3218,13 +3218,13 @@
       <c r="C75" s="2">
         <v>44985</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75">
         <v>78909249.9993622</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="b">
         <v>0</v>
       </c>
       <c r="G75">
@@ -3256,13 +3256,13 @@
       <c r="C76" s="2">
         <v>45016</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76">
         <v>73975166.05838096</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="b">
         <v>0</v>
       </c>
       <c r="G76">
@@ -3294,32 +3294,32 @@
       <c r="C77" s="2">
         <v>45046</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>24273009.05059253</v>
-      </c>
-      <c r="F77">
+        <v>72819027.15177758</v>
+      </c>
+      <c r="F77" t="b">
         <v>1</v>
       </c>
       <c r="G77">
         <v>24.45301574129639</v>
       </c>
       <c r="H77">
-        <v>593548272.4027689</v>
+        <v>1780644817.208306</v>
       </c>
       <c r="I77">
-        <v>9421.4011492503</v>
+        <v>28264.20344775089</v>
       </c>
       <c r="J77">
-        <v>-49702157.00778843</v>
+        <v>-1156138.906603381</v>
       </c>
       <c r="K77">
-        <v>-1215367627.687835</v>
+        <v>-28271082.88229767</v>
       </c>
       <c r="L77">
-        <v>-265430317.4739659</v>
+        <v>-265430317.473966</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3332,32 +3332,32 @@
       <c r="C78" s="2">
         <v>45077</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>21127171.46386207</v>
-      </c>
-      <c r="F78">
+        <v>63381514.39158621</v>
+      </c>
+      <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78">
         <v>30.21641044652872</v>
       </c>
       <c r="H78">
-        <v>638387284.5262452</v>
+        <v>1915161853.578736</v>
       </c>
       <c r="I78">
-        <v>10133.13150041659</v>
+        <v>30399.39450124978</v>
       </c>
       <c r="J78">
-        <v>-3145837.586730458</v>
+        <v>-9437512.760191374</v>
       </c>
       <c r="K78">
-        <v>-95055919.7187649</v>
+        <v>-285167759.1562947</v>
       </c>
       <c r="L78">
-        <v>139894931.8422413</v>
+        <v>419684795.5267242</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3370,32 +3370,32 @@
       <c r="C79" s="2">
         <v>45107</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>20663071.21851985</v>
-      </c>
-      <c r="F79">
+        <v>61989213.65555954</v>
+      </c>
+      <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79">
         <v>32.93008848638497</v>
       </c>
       <c r="H79">
-        <v>680436763.626333</v>
+        <v>2041310290.878999</v>
       </c>
       <c r="I79">
-        <v>10800.58354962433</v>
+        <v>32401.750648873</v>
       </c>
       <c r="J79">
-        <v>-464100.2453422211</v>
+        <v>-1392300.736026667</v>
       </c>
       <c r="K79">
-        <v>-15282862.14567231</v>
+        <v>-45848586.43701707</v>
       </c>
       <c r="L79">
-        <v>57332341.24576008</v>
+        <v>171997023.7372802</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3408,32 +3408,32 @@
       <c r="C80" s="2">
         <v>45138</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>20416797.31672011</v>
-      </c>
-      <c r="F80">
+        <v>61250391.95016032</v>
+      </c>
+      <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="G80">
         <v>35.00765366760461</v>
       </c>
       <c r="H80">
-        <v>714744169.4654166</v>
+        <v>2144232508.39625</v>
       </c>
       <c r="I80">
-        <v>11345.1455470701</v>
+        <v>34035.43664121031</v>
       </c>
       <c r="J80">
-        <v>-246273.9017997421</v>
+        <v>-738821.7053992227</v>
       </c>
       <c r="K80">
-        <v>-8621471.461575039</v>
+        <v>-25864414.38472499</v>
       </c>
       <c r="L80">
-        <v>42928877.30065859</v>
+        <v>128786631.9019755</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3446,32 +3446,32 @@
       <c r="C81" s="2">
         <v>45169</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>17846526.660054</v>
-      </c>
-      <c r="F81">
+        <v>53539579.980162</v>
+      </c>
+      <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="G81">
         <v>26.83151320771734</v>
       </c>
       <c r="H81">
-        <v>478849315.7911186</v>
+        <v>1436547947.373356</v>
       </c>
       <c r="I81">
-        <v>7600.782790335215</v>
+        <v>22802.34837100564</v>
       </c>
       <c r="J81">
-        <v>-2570270.656666104</v>
+        <v>-7710811.969998315</v>
       </c>
       <c r="K81">
-        <v>-68964251.07174489</v>
+        <v>-206892753.2152348</v>
       </c>
       <c r="L81">
-        <v>-166930602.6025531</v>
+        <v>-500791807.8076591</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3484,32 +3484,32 @@
       <c r="C82" s="2">
         <v>45199</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>17601227.77672803</v>
-      </c>
-      <c r="F82">
+        <v>52803683.33018408</v>
+      </c>
+      <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="G82">
         <v>29.53588197762351</v>
       </c>
       <c r="H82">
-        <v>519867786.2747077</v>
+        <v>1559603358.824123</v>
       </c>
       <c r="I82">
-        <v>8251.869623408058</v>
+        <v>24755.60887022417</v>
       </c>
       <c r="J82">
-        <v>-245298.8833259754</v>
+        <v>-735896.6499779224</v>
       </c>
       <c r="K82">
-        <v>-7245118.867158849</v>
+        <v>-21735356.60147643</v>
       </c>
       <c r="L82">
-        <v>48263589.35074796</v>
+        <v>144790768.0522437</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3522,32 +3522,32 @@
       <c r="C83" s="2">
         <v>45230</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>17753171.62264293</v>
-      </c>
-      <c r="F83">
+        <v>53259514.86792878</v>
+      </c>
+      <c r="F83" t="b">
         <v>0</v>
       </c>
       <c r="G83">
         <v>26.75727530339264</v>
       </c>
       <c r="H83">
-        <v>475026500.6154346</v>
+        <v>1425079501.846304</v>
       </c>
       <c r="I83">
-        <v>7540.103184371977</v>
+        <v>22620.30955311593</v>
       </c>
       <c r="J83">
-        <v>151943.8459149003</v>
+        <v>455831.5377447009</v>
       </c>
       <c r="K83">
-        <v>4065603.315801258</v>
+        <v>12196809.94740378</v>
       </c>
       <c r="L83">
-        <v>-48906888.97507434</v>
+        <v>-146720666.9252228</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3560,32 +3560,32 @@
       <c r="C84" s="2">
         <v>45260</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>17154787.00078258</v>
-      </c>
-      <c r="F84">
+        <v>51464361.00234772</v>
+      </c>
+      <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="G84">
         <v>26.60127477418531</v>
       </c>
       <c r="H84">
-        <v>456339202.7004396</v>
+        <v>1369017608.101319</v>
       </c>
       <c r="I84">
-        <v>7243.479407943485</v>
+        <v>21730.43822383045</v>
       </c>
       <c r="J84">
-        <v>-598384.6218603514</v>
+        <v>-1795153.865581058</v>
       </c>
       <c r="K84">
-        <v>-15917793.74675418</v>
+        <v>-47753381.24026264</v>
       </c>
       <c r="L84">
-        <v>-2769504.168240834</v>
+        <v>-8308512.5047227</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3598,32 +3598,32 @@
       <c r="C85" s="2">
         <v>45291</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>16735578.02848592</v>
-      </c>
-      <c r="F85">
+        <v>50206734.08545776</v>
+      </c>
+      <c r="F85" t="b">
         <v>1</v>
       </c>
       <c r="G85">
         <v>39.12556347492684</v>
       </c>
       <c r="H85">
-        <v>654788920.4431168</v>
+        <v>1964366761.32935</v>
       </c>
       <c r="I85">
-        <v>10393.47492766852</v>
+        <v>31180.42478300556</v>
       </c>
       <c r="J85">
-        <v>-419208.972296657</v>
+        <v>-1257626.916889966</v>
       </c>
       <c r="K85">
-        <v>-16401787.2548517</v>
+        <v>-49205361.76455489</v>
       </c>
       <c r="L85">
-        <v>214851504.9975289</v>
+        <v>644554514.9925867</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3636,32 +3636,32 @@
       <c r="C86" s="2">
         <v>45322</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>16887979.61268491</v>
-      </c>
-      <c r="F86">
+        <v>50663938.83805473</v>
+      </c>
+      <c r="F86" t="b">
         <v>0</v>
       </c>
       <c r="G86">
         <v>35.16570486701028</v>
       </c>
       <c r="H86">
-        <v>593877706.8597641</v>
+        <v>1781633120.579292</v>
       </c>
       <c r="I86">
-        <v>9426.630267615303</v>
+        <v>28279.89080284591</v>
       </c>
       <c r="J86">
-        <v>152401.5841989908</v>
+        <v>457204.7525969744</v>
       </c>
       <c r="K86">
-        <v>5359309.131206528</v>
+        <v>16077927.39361965</v>
       </c>
       <c r="L86">
-        <v>-66270522.71455921</v>
+        <v>-198811568.1436778</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3674,32 +3674,32 @@
       <c r="C87" s="2">
         <v>45351</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>17589923.42045554</v>
-      </c>
-      <c r="F87">
+        <v>52769770.26136661</v>
+      </c>
+      <c r="F87" t="b">
         <v>0</v>
       </c>
       <c r="G87">
         <v>30.76900549638855</v>
       </c>
       <c r="H87">
-        <v>541224450.4050502</v>
+        <v>1623673351.21515</v>
       </c>
       <c r="I87">
-        <v>8590.864292143653</v>
+        <v>25772.59287643096</v>
       </c>
       <c r="J87">
-        <v>701943.8077706285</v>
+        <v>2105831.423311882</v>
       </c>
       <c r="K87">
-        <v>21598112.87945038</v>
+        <v>64794338.63835102</v>
       </c>
       <c r="L87">
-        <v>-74251369.33416432</v>
+        <v>-222754108.002493</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3712,13 +3712,13 @@
       <c r="C88" s="2">
         <v>45382</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88">
         <v>14379951.42589629</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="b">
         <v>1</v>
       </c>
       <c r="G88">
@@ -3731,13 +3731,13 @@
         <v>6712.87731116703</v>
       </c>
       <c r="J88">
-        <v>-3209971.994559251</v>
+        <v>-38389818.83547033</v>
       </c>
       <c r="K88">
-        <v>-94404584.17516273</v>
+        <v>-1129036293.732534</v>
       </c>
       <c r="L88">
-        <v>-23908595.62636453</v>
+        <v>-71725786.87909365</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3750,13 +3750,13 @@
       <c r="C89" s="2">
         <v>45412</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89">
         <v>14149943.1458845</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="b">
         <v>0</v>
       </c>
       <c r="G89">
@@ -3788,13 +3788,13 @@
       <c r="C90" s="2">
         <v>45443</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90">
         <v>13418641.8845209</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="G90">
@@ -3826,13 +3826,13 @@
       <c r="C91" s="2">
         <v>45473</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91">
         <v>12653662.12277619</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="b">
         <v>1</v>
       </c>
       <c r="G91">
@@ -3864,13 +3864,13 @@
       <c r="C92" s="2">
         <v>45504</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92">
         <v>12396031.76223206</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="b">
         <v>0</v>
       </c>
       <c r="G92">
@@ -3902,13 +3902,13 @@
       <c r="C93" s="2">
         <v>45535</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93">
         <v>10942467.25315954</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="b">
         <v>1</v>
       </c>
       <c r="G93">
@@ -3940,13 +3940,13 @@
       <c r="C94" s="2">
         <v>45565</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94">
         <v>9444079.803866224</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="b">
         <v>0</v>
       </c>
       <c r="G94">
@@ -3978,13 +3978,13 @@
       <c r="C95" s="2">
         <v>45596</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95">
         <v>9424114.370608933</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="b">
         <v>0</v>
       </c>
       <c r="G95">
@@ -4016,13 +4016,13 @@
       <c r="C96" s="2">
         <v>45626</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96">
         <v>8501792.824446181</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="b">
         <v>1</v>
       </c>
       <c r="G96">
@@ -4054,13 +4054,13 @@
       <c r="C97" s="2">
         <v>45657</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="b">
         <v>1</v>
       </c>
       <c r="E97">
         <v>8501792.824446181</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="b">
         <v>0</v>
       </c>
       <c r="G97">
@@ -4092,13 +4092,13 @@
       <c r="C98" s="2">
         <v>44957</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98">
         <v>206501874</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="b">
         <v>0</v>
       </c>
       <c r="G98">
@@ -4121,13 +4121,13 @@
       <c r="C99" s="2">
         <v>44985</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99">
         <v>204885313.0162106</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="b">
         <v>0</v>
       </c>
       <c r="G99">
@@ -4159,13 +4159,13 @@
       <c r="C100" s="2">
         <v>45016</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100">
         <v>207140558.8503922</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="b">
         <v>1</v>
       </c>
       <c r="G100">
@@ -4197,13 +4197,13 @@
       <c r="C101" s="2">
         <v>45046</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101">
         <v>220634012.4274944</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="b">
         <v>1</v>
       </c>
       <c r="G101">
@@ -4235,13 +4235,13 @@
       <c r="C102" s="2">
         <v>45077</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102">
         <v>250861854.4959334</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="b">
         <v>0</v>
       </c>
       <c r="G102">
@@ -4273,13 +4273,13 @@
       <c r="C103" s="2">
         <v>45107</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="b">
         <v>0</v>
       </c>
       <c r="E103">
         <v>249706576.8043155</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="b">
         <v>0</v>
       </c>
       <c r="G103">
@@ -4311,13 +4311,13 @@
       <c r="C104" s="2">
         <v>45138</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104">
         <v>268164724.6125269</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="b">
         <v>0</v>
       </c>
       <c r="G104">
@@ -4349,13 +4349,13 @@
       <c r="C105" s="2">
         <v>45169</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105">
         <v>269153581.5177608</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="b">
         <v>0</v>
       </c>
       <c r="G105">
@@ -4387,13 +4387,13 @@
       <c r="C106" s="2">
         <v>45199</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="b">
         <v>0</v>
       </c>
       <c r="E106">
         <v>308108400.4510298</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="b">
         <v>1</v>
       </c>
       <c r="G106">
@@ -4425,13 +4425,13 @@
       <c r="C107" s="2">
         <v>45230</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="b">
         <v>0</v>
       </c>
       <c r="E107">
         <v>320438414.3308473</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="b">
         <v>0</v>
       </c>
       <c r="G107">
@@ -4463,13 +4463,13 @@
       <c r="C108" s="2">
         <v>45260</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108">
         <v>325347060.710846</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="b">
         <v>0</v>
       </c>
       <c r="G108">
@@ -4501,13 +4501,13 @@
       <c r="C109" s="2">
         <v>45291</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109">
         <v>280927058.7055038</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="b">
         <v>1</v>
       </c>
       <c r="G109">
@@ -4539,13 +4539,13 @@
       <c r="C110" s="2">
         <v>45322</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110">
         <v>257984139.1992216</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="b">
         <v>0</v>
       </c>
       <c r="G110">
@@ -4577,13 +4577,13 @@
       <c r="C111" s="2">
         <v>45351</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111">
         <v>270829397.4974418</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="b">
         <v>0</v>
       </c>
       <c r="G111">
@@ -4615,13 +4615,13 @@
       <c r="C112" s="2">
         <v>45382</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="b">
         <v>0</v>
       </c>
       <c r="E112">
         <v>277624861.3593352</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="b">
         <v>1</v>
       </c>
       <c r="G112">
@@ -4653,13 +4653,13 @@
       <c r="C113" s="2">
         <v>45412</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113">
         <v>235789821.0635866</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="b">
         <v>0</v>
       </c>
       <c r="G113">
@@ -4691,13 +4691,13 @@
       <c r="C114" s="2">
         <v>45443</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114">
         <v>278777719.2112225</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="b">
         <v>0</v>
       </c>
       <c r="G114">
@@ -4729,13 +4729,13 @@
       <c r="C115" s="2">
         <v>45473</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115">
         <v>323882984.4939038</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="b">
         <v>1</v>
       </c>
       <c r="G115">
@@ -4767,13 +4767,13 @@
       <c r="C116" s="2">
         <v>45504</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116">
         <v>335421632.9120006</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="b">
         <v>0</v>
       </c>
       <c r="G116">
@@ -4805,13 +4805,13 @@
       <c r="C117" s="2">
         <v>45535</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117">
         <v>401077598.7566749</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="b">
         <v>1</v>
       </c>
       <c r="G117">
@@ -4843,13 +4843,13 @@
       <c r="C118" s="2">
         <v>45565</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118">
         <v>360992282.5622445</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="b">
         <v>0</v>
       </c>
       <c r="G118">
@@ -4881,13 +4881,13 @@
       <c r="C119" s="2">
         <v>45596</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119">
         <v>391385607.9159575</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="b">
         <v>0</v>
       </c>
       <c r="G119">
@@ -4919,13 +4919,13 @@
       <c r="C120" s="2">
         <v>45626</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120">
         <v>424625382.2055262</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="b">
         <v>1</v>
       </c>
       <c r="G120">
@@ -4957,13 +4957,13 @@
       <c r="C121" s="2">
         <v>45657</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="b">
         <v>1</v>
       </c>
       <c r="E121">
         <v>424625382.2055262</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="b">
         <v>0</v>
       </c>
       <c r="G121">
@@ -4995,13 +4995,13 @@
       <c r="C122" s="2">
         <v>44957</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122">
         <v>221754240</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="b">
         <v>0</v>
       </c>
       <c r="G122">
@@ -5024,13 +5024,13 @@
       <c r="C123" s="2">
         <v>44985</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123">
         <v>209818507.1739242</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="b">
         <v>1</v>
       </c>
       <c r="G123">
@@ -5062,13 +5062,13 @@
       <c r="C124" s="2">
         <v>45016</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124">
         <v>250336454.8068354</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="b">
         <v>0</v>
       </c>
       <c r="G124">
@@ -5100,13 +5100,13 @@
       <c r="C125" s="2">
         <v>45046</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125">
         <v>266215713.7201806</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="b">
         <v>1</v>
       </c>
       <c r="G125">
@@ -5138,13 +5138,13 @@
       <c r="C126" s="2">
         <v>45077</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126">
         <v>250430851.0575312</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="b">
         <v>0</v>
       </c>
       <c r="G126">
@@ -5176,13 +5176,13 @@
       <c r="C127" s="2">
         <v>45107</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127">
         <v>292525917.0609235</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="b">
         <v>0</v>
       </c>
       <c r="G127">
@@ -5214,13 +5214,13 @@
       <c r="C128" s="2">
         <v>45138</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128">
         <v>269823428.0046807</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="b">
         <v>0</v>
       </c>
       <c r="G128">
@@ -5252,13 +5252,13 @@
       <c r="C129" s="2">
         <v>45169</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129">
         <v>316319571.0945937</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="b">
         <v>0</v>
       </c>
       <c r="G129">
@@ -5290,13 +5290,13 @@
       <c r="C130" s="2">
         <v>45199</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130">
         <v>379257580.2746143</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="b">
         <v>1</v>
       </c>
       <c r="G130">
@@ -5328,13 +5328,13 @@
       <c r="C131" s="2">
         <v>45230</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131">
         <v>421025043.0357999</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="b">
         <v>0</v>
       </c>
       <c r="G131">
@@ -5366,13 +5366,13 @@
       <c r="C132" s="2">
         <v>45260</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132">
         <v>476235811.0550666</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="b">
         <v>0</v>
       </c>
       <c r="G132">
@@ -5404,13 +5404,13 @@
       <c r="C133" s="2">
         <v>45291</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="b">
         <v>0</v>
       </c>
       <c r="E133">
         <v>476802936.9184403</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="b">
         <v>1</v>
       </c>
       <c r="G133">
@@ -5442,13 +5442,13 @@
       <c r="C134" s="2">
         <v>45322</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134">
         <v>563806625.8419846</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="b">
         <v>0</v>
       </c>
       <c r="G134">
@@ -5480,13 +5480,13 @@
       <c r="C135" s="2">
         <v>45351</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135">
         <v>597022836.4256665</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="b">
         <v>0</v>
       </c>
       <c r="G135">
@@ -5518,13 +5518,13 @@
       <c r="C136" s="2">
         <v>45382</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136">
         <v>668496341.1090178</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="b">
         <v>1</v>
       </c>
       <c r="G136">
@@ -5556,13 +5556,13 @@
       <c r="C137" s="2">
         <v>45412</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137">
         <v>786975495.0613067</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="b">
         <v>0</v>
       </c>
       <c r="G137">
@@ -5594,13 +5594,13 @@
       <c r="C138" s="2">
         <v>45443</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138">
         <v>938510768.8653357</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="b">
         <v>0</v>
       </c>
       <c r="G138">
@@ -5632,13 +5632,13 @@
       <c r="C139" s="2">
         <v>45473</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139">
         <v>1079251070.37825</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="b">
         <v>1</v>
       </c>
       <c r="G139">
@@ -5670,13 +5670,13 @@
       <c r="C140" s="2">
         <v>45504</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140">
         <v>1069435553.966536</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="b">
         <v>0</v>
       </c>
       <c r="G140">
@@ -5708,13 +5708,13 @@
       <c r="C141" s="2">
         <v>45535</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141">
         <v>1272590082.209539</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="b">
         <v>1</v>
       </c>
       <c r="G141">
@@ -5746,13 +5746,13 @@
       <c r="C142" s="2">
         <v>45565</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142">
         <v>1385132679.759387</v>
       </c>
-      <c r="F142">
+      <c r="F142" t="b">
         <v>0</v>
       </c>
       <c r="G142">
@@ -5784,13 +5784,13 @@
       <c r="C143" s="2">
         <v>45596</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143">
         <v>1633338403.933639</v>
       </c>
-      <c r="F143">
+      <c r="F143" t="b">
         <v>0</v>
       </c>
       <c r="G143">
@@ -5822,13 +5822,13 @@
       <c r="C144" s="2">
         <v>45626</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144">
         <v>1801297054.666813</v>
       </c>
-      <c r="F144">
+      <c r="F144" t="b">
         <v>1</v>
       </c>
       <c r="G144">
@@ -5860,13 +5860,13 @@
       <c r="C145" s="2">
         <v>45657</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="b">
         <v>1</v>
       </c>
       <c r="E145">
         <v>1801297054.666813</v>
       </c>
-      <c r="F145">
+      <c r="F145" t="b">
         <v>0</v>
       </c>
       <c r="G145">
@@ -5898,13 +5898,13 @@
       <c r="C146" s="2">
         <v>44957</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146">
         <v>207782075</v>
       </c>
-      <c r="F146">
+      <c r="F146" t="b">
         <v>0</v>
       </c>
       <c r="G146">
@@ -5927,13 +5927,13 @@
       <c r="C147" s="2">
         <v>44985</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147">
         <v>215518407.7028959</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="b">
         <v>0</v>
       </c>
       <c r="G147">
@@ -5965,13 +5965,13 @@
       <c r="C148" s="2">
         <v>45016</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148">
         <v>219631445.4529136</v>
       </c>
-      <c r="F148">
+      <c r="F148" t="b">
         <v>0</v>
       </c>
       <c r="G148">
@@ -6003,13 +6003,13 @@
       <c r="C149" s="2">
         <v>45046</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149">
         <v>227673237.791768</v>
       </c>
-      <c r="F149">
+      <c r="F149" t="b">
         <v>1</v>
       </c>
       <c r="G149">
@@ -6041,13 +6041,13 @@
       <c r="C150" s="2">
         <v>45077</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150">
         <v>256573382.8063061</v>
       </c>
-      <c r="F150">
+      <c r="F150" t="b">
         <v>0</v>
       </c>
       <c r="G150">
@@ -6079,13 +6079,13 @@
       <c r="C151" s="2">
         <v>45107</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151">
         <v>261039565.7675758</v>
       </c>
-      <c r="F151">
+      <c r="F151" t="b">
         <v>0</v>
       </c>
       <c r="G151">
@@ -6117,13 +6117,13 @@
       <c r="C152" s="2">
         <v>45138</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152">
         <v>245535546.3817304</v>
       </c>
-      <c r="F152">
+      <c r="F152" t="b">
         <v>0</v>
       </c>
       <c r="G152">
@@ -6155,13 +6155,13 @@
       <c r="C153" s="2">
         <v>45169</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153">
         <v>235540227.9478481</v>
       </c>
-      <c r="F153">
+      <c r="F153" t="b">
         <v>0</v>
       </c>
       <c r="G153">
@@ -6193,13 +6193,13 @@
       <c r="C154" s="2">
         <v>45199</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154">
         <v>224741996.5523513</v>
       </c>
-      <c r="F154">
+      <c r="F154" t="b">
         <v>1</v>
       </c>
       <c r="G154">
@@ -6231,13 +6231,13 @@
       <c r="C155" s="2">
         <v>45230</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="b">
         <v>0</v>
       </c>
       <c r="E155">
         <v>219964245.8980412</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="b">
         <v>0</v>
       </c>
       <c r="G155">
@@ -6269,13 +6269,13 @@
       <c r="C156" s="2">
         <v>45260</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="b">
         <v>0</v>
       </c>
       <c r="E156">
         <v>232629242.9049037</v>
       </c>
-      <c r="F156">
+      <c r="F156" t="b">
         <v>0</v>
       </c>
       <c r="G156">
@@ -6307,13 +6307,13 @@
       <c r="C157" s="2">
         <v>45291</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157">
         <v>238840184.6860932</v>
       </c>
-      <c r="F157">
+      <c r="F157" t="b">
         <v>1</v>
       </c>
       <c r="G157">
@@ -6345,13 +6345,13 @@
       <c r="C158" s="2">
         <v>45322</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158">
         <v>251965709.6980519</v>
       </c>
-      <c r="F158">
+      <c r="F158" t="b">
         <v>1</v>
       </c>
       <c r="G158">
@@ -6383,13 +6383,13 @@
       <c r="C159" s="2">
         <v>45351</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159">
         <v>249246611.5101583</v>
       </c>
-      <c r="F159">
+      <c r="F159" t="b">
         <v>0</v>
       </c>
       <c r="G159">
@@ -6421,13 +6421,13 @@
       <c r="C160" s="2">
         <v>45382</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160">
         <v>236475563.1446193</v>
       </c>
-      <c r="F160">
+      <c r="F160" t="b">
         <v>1</v>
       </c>
       <c r="G160">
@@ -6459,13 +6459,13 @@
       <c r="C161" s="2">
         <v>45412</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161">
         <v>260758385.7280823</v>
       </c>
-      <c r="F161">
+      <c r="F161" t="b">
         <v>0</v>
       </c>
       <c r="G161">
@@ -6497,13 +6497,13 @@
       <c r="C162" s="2">
         <v>45443</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162">
         <v>261428138.2174704</v>
       </c>
-      <c r="F162">
+      <c r="F162" t="b">
         <v>0</v>
       </c>
       <c r="G162">
@@ -6535,13 +6535,13 @@
       <c r="C163" s="2">
         <v>45473</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163">
         <v>258098629.7238602</v>
       </c>
-      <c r="F163">
+      <c r="F163" t="b">
         <v>1</v>
       </c>
       <c r="G163">
@@ -6573,13 +6573,13 @@
       <c r="C164" s="2">
         <v>45504</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164">
         <v>286349984.2213604</v>
       </c>
-      <c r="F164">
+      <c r="F164" t="b">
         <v>0</v>
       </c>
       <c r="G164">
@@ -6611,13 +6611,13 @@
       <c r="C165" s="2">
         <v>45535</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="b">
         <v>1</v>
       </c>
       <c r="E165">
         <v>276177389.4106734</v>
       </c>
-      <c r="F165">
+      <c r="F165" t="b">
         <v>1</v>
       </c>
       <c r="G165">
@@ -6649,13 +6649,13 @@
       <c r="C166" s="2">
         <v>45565</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="b">
         <v>1</v>
       </c>
       <c r="E166">
         <v>252036508.9454163</v>
       </c>
-      <c r="F166">
+      <c r="F166" t="b">
         <v>0</v>
       </c>
       <c r="G166">
@@ -6687,13 +6687,13 @@
       <c r="C167" s="2">
         <v>45596</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="b">
         <v>0</v>
       </c>
       <c r="E167">
         <v>254328430.0777529</v>
       </c>
-      <c r="F167">
+      <c r="F167" t="b">
         <v>0</v>
       </c>
       <c r="G167">
@@ -6725,13 +6725,13 @@
       <c r="C168" s="2">
         <v>45626</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168">
         <v>236418181.8076245</v>
       </c>
-      <c r="F168">
+      <c r="F168" t="b">
         <v>1</v>
       </c>
       <c r="G168">
@@ -6763,13 +6763,13 @@
       <c r="C169" s="2">
         <v>45657</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="b">
         <v>1</v>
       </c>
       <c r="E169">
         <v>236418181.8076245</v>
       </c>
-      <c r="F169">
+      <c r="F169" t="b">
         <v>0</v>
       </c>
       <c r="G169">
@@ -6801,13 +6801,13 @@
       <c r="C170" s="2">
         <v>44957</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="b">
         <v>0</v>
       </c>
       <c r="E170">
         <v>118920321</v>
       </c>
-      <c r="F170">
+      <c r="F170" t="b">
         <v>0</v>
       </c>
       <c r="G170">
@@ -6830,13 +6830,13 @@
       <c r="C171" s="2">
         <v>44985</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171">
         <v>135444603.5534335</v>
       </c>
-      <c r="F171">
+      <c r="F171" t="b">
         <v>0</v>
       </c>
       <c r="G171">
@@ -6868,13 +6868,13 @@
       <c r="C172" s="2">
         <v>45016</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172">
         <v>131349083.7394424</v>
       </c>
-      <c r="F172">
+      <c r="F172" t="b">
         <v>0</v>
       </c>
       <c r="G172">
@@ -6906,32 +6906,32 @@
       <c r="C173" s="2">
         <v>45046</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>42373650.45112137</v>
-      </c>
-      <c r="F173">
+        <v>127120951.3533641</v>
+      </c>
+      <c r="F173" t="b">
         <v>1</v>
       </c>
       <c r="G173">
         <v>24.45301574129639</v>
       </c>
       <c r="H173">
-        <v>1036163541.497462</v>
+        <v>3108490624.492385</v>
       </c>
       <c r="I173">
-        <v>16447.04034122955</v>
+        <v>49341.12102368865</v>
       </c>
       <c r="J173">
-        <v>-88975433.28832102</v>
+        <v>-4228132.386078298</v>
       </c>
       <c r="K173">
-        <v>-2175717670.787981</v>
+        <v>-103390587.7930577</v>
       </c>
       <c r="L173">
-        <v>-471293690.2278824</v>
+        <v>-471293690.2278821</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6944,32 +6944,32 @@
       <c r="C174" s="2">
         <v>45077</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="b">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>45141297.54871223</v>
-      </c>
-      <c r="F174">
+        <v>135423892.6461367</v>
+      </c>
+      <c r="F174" t="b">
         <v>0</v>
       </c>
       <c r="G174">
         <v>30.21641044652872</v>
       </c>
       <c r="H174">
-        <v>1364007974.82077</v>
+        <v>4092023924.462309</v>
       </c>
       <c r="I174">
-        <v>21650.92023525031</v>
+        <v>64952.76070575093</v>
       </c>
       <c r="J174">
-        <v>2767647.097590864</v>
+        <v>8302941.292772606</v>
       </c>
       <c r="K174">
-        <v>83628360.67194946</v>
+        <v>250885082.0158488</v>
       </c>
       <c r="L174">
-        <v>244216072.6513584</v>
+        <v>732648217.9540751</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6982,32 +6982,32 @@
       <c r="C175" s="2">
         <v>45107</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="b">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>47717469.59260883</v>
-      </c>
-      <c r="F175">
+        <v>143152408.7778265</v>
+      </c>
+      <c r="F175" t="b">
         <v>0</v>
       </c>
       <c r="G175">
         <v>32.93008848638497</v>
       </c>
       <c r="H175">
-        <v>1571340496.030993</v>
+        <v>4714021488.092978</v>
       </c>
       <c r="I175">
-        <v>24941.91263541259</v>
+        <v>74825.73790623774</v>
       </c>
       <c r="J175">
-        <v>2576172.043896601</v>
+        <v>7728516.131689787</v>
       </c>
       <c r="K175">
-        <v>84833573.36166628</v>
+        <v>254500720.0849983</v>
       </c>
       <c r="L175">
-        <v>122498947.8485572</v>
+        <v>367496843.5456712</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7020,32 +7020,32 @@
       <c r="C176" s="2">
         <v>45138</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>46986377.8880671</v>
-      </c>
-      <c r="F176">
+        <v>140959133.6642013</v>
+      </c>
+      <c r="F176" t="b">
         <v>0</v>
       </c>
       <c r="G176">
         <v>35.00765366760461</v>
       </c>
       <c r="H176">
-        <v>1644882844.200648</v>
+        <v>4934648532.601944</v>
       </c>
       <c r="I176">
-        <v>26109.25149524838</v>
+        <v>78327.75448574514</v>
       </c>
       <c r="J176">
-        <v>-731091.7045417354</v>
+        <v>-2193275.113625199</v>
       </c>
       <c r="K176">
-        <v>-25593805.19185578</v>
+        <v>-76781415.5755671</v>
       </c>
       <c r="L176">
-        <v>99136153.36151087</v>
+        <v>297408460.0845326</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7058,32 +7058,32 @@
       <c r="C177" s="2">
         <v>45169</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="b">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>51138327.51026737</v>
-      </c>
-      <c r="F177">
+        <v>153414982.5308021</v>
+      </c>
+      <c r="F177" t="b">
         <v>0</v>
       </c>
       <c r="G177">
         <v>26.83151320771734</v>
       </c>
       <c r="H177">
-        <v>1372118710.012314</v>
+        <v>4116356130.036942</v>
       </c>
       <c r="I177">
-        <v>21779.66206368752</v>
+        <v>65338.98619106256</v>
       </c>
       <c r="J177">
-        <v>4151949.622200273</v>
+        <v>12455848.86660081</v>
       </c>
       <c r="K177">
-        <v>111403091.1258436</v>
+        <v>334209273.3775308</v>
       </c>
       <c r="L177">
-        <v>-384167225.3141779</v>
+        <v>-1152501675.942533</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7096,32 +7096,32 @@
       <c r="C178" s="2">
         <v>45199</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="b">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>45715505.31381903</v>
-      </c>
-      <c r="F178">
+        <v>137146515.9414571</v>
+      </c>
+      <c r="F178" t="b">
         <v>1</v>
       </c>
       <c r="G178">
         <v>29.53588197762351</v>
       </c>
       <c r="H178">
-        <v>1350247769.496379</v>
+        <v>4050743308.489138</v>
       </c>
       <c r="I178">
-        <v>21432.50427772031</v>
+        <v>64297.51283316092</v>
       </c>
       <c r="J178">
-        <v>-5422822.196448341</v>
+        <v>-16268466.58934501</v>
       </c>
       <c r="K178">
-        <v>-160167836.3799353</v>
+        <v>-480503509.1398054</v>
       </c>
       <c r="L178">
-        <v>138296895.8640008</v>
+        <v>414890687.592002</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7134,32 +7134,32 @@
       <c r="C179" s="2">
         <v>45230</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="b">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>51724973.91342733</v>
-      </c>
-      <c r="F179">
+        <v>155174921.740282</v>
+      </c>
+      <c r="F179" t="b">
         <v>0</v>
       </c>
       <c r="G179">
         <v>26.75727530339264</v>
       </c>
       <c r="H179">
-        <v>1384019367.062378</v>
+        <v>4152058101.187133</v>
       </c>
       <c r="I179">
-        <v>21968.5613819425</v>
+        <v>65905.6841458275</v>
       </c>
       <c r="J179">
-        <v>6009468.599608302</v>
+        <v>18028405.79882491</v>
       </c>
       <c r="K179">
-        <v>160797005.7468128</v>
+        <v>482391017.2404383</v>
       </c>
       <c r="L179">
-        <v>-127025408.1808144</v>
+        <v>-381076224.5424436</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7172,32 +7172,32 @@
       <c r="C180" s="2">
         <v>45260</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="b">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>56668343.1016923</v>
-      </c>
-      <c r="F180">
+        <v>170005029.3050769</v>
+      </c>
+      <c r="F180" t="b">
         <v>0</v>
       </c>
       <c r="G180">
         <v>26.60127477418531</v>
       </c>
       <c r="H180">
-        <v>1507450165.845925</v>
+        <v>4522350497.537776</v>
       </c>
       <c r="I180">
-        <v>23927.78041025278</v>
+        <v>71783.34123075835</v>
       </c>
       <c r="J180">
-        <v>4943369.188264966</v>
+        <v>14830107.5647949</v>
       </c>
       <c r="K180">
-        <v>131499922.0872778</v>
+        <v>394499766.2618333</v>
       </c>
       <c r="L180">
-        <v>-8069123.303730115</v>
+        <v>-24207369.91119009</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7210,32 +7210,32 @@
       <c r="C181" s="2">
         <v>45291</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>71668321.51324344</v>
-      </c>
-      <c r="F181">
+        <v>215004964.5397303</v>
+      </c>
+      <c r="F181" t="b">
         <v>1</v>
       </c>
       <c r="G181">
         <v>39.12556347492684</v>
       </c>
       <c r="H181">
-        <v>2804063462.507871</v>
+        <v>8412190387.523613</v>
       </c>
       <c r="I181">
-        <v>44508.94384933128</v>
+        <v>133526.8315479938</v>
       </c>
       <c r="J181">
-        <v>14999978.41155114</v>
+        <v>44999935.23465341</v>
       </c>
       <c r="K181">
-        <v>586882607.4636765</v>
+        <v>1760647822.391029</v>
       </c>
       <c r="L181">
-        <v>709730689.1982694</v>
+        <v>2129192067.594808</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7248,32 +7248,32 @@
       <c r="C182" s="2">
         <v>45322</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="b">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>77704221.58921006</v>
-      </c>
-      <c r="F182">
+        <v>233112664.7676302</v>
+      </c>
+      <c r="F182" t="b">
         <v>0</v>
       </c>
       <c r="G182">
         <v>35.16570486701028</v>
       </c>
       <c r="H182">
-        <v>2732523723.32693</v>
+        <v>8197571169.980788</v>
       </c>
       <c r="I182">
-        <v>43373.39243376078</v>
+        <v>130120.1773012824</v>
       </c>
       <c r="J182">
-        <v>6035900.075966626</v>
+        <v>18107700.22789988</v>
       </c>
       <c r="K182">
-        <v>212256680.6782073</v>
+        <v>636770042.0346218</v>
       </c>
       <c r="L182">
-        <v>-283796419.8591489</v>
+        <v>-851389259.5774466</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7286,32 +7286,32 @@
       <c r="C183" s="2">
         <v>45351</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="b">
         <v>1</v>
       </c>
       <c r="E183">
-        <v>80987169.69445214</v>
-      </c>
-      <c r="F183">
+        <v>242961509.0833564</v>
+      </c>
+      <c r="F183" t="b">
         <v>0</v>
       </c>
       <c r="G183">
         <v>30.76900549638855</v>
       </c>
       <c r="H183">
-        <v>2491894669.46555</v>
+        <v>7475684008.39665</v>
       </c>
       <c r="I183">
-        <v>39553.88364231031</v>
+        <v>118661.6509269309</v>
       </c>
       <c r="J183">
-        <v>3282948.105242074</v>
+        <v>9848844.315726221</v>
       </c>
       <c r="K183">
-        <v>101013048.2945517</v>
+        <v>303039144.8836553</v>
       </c>
       <c r="L183">
-        <v>-341642102.1559314</v>
+        <v>-1024926306.467793</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7324,13 +7324,13 @@
       <c r="C184" s="2">
         <v>45382</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="b">
         <v>1</v>
       </c>
       <c r="E184">
         <v>74508857.33229637</v>
       </c>
-      <c r="F184">
+      <c r="F184" t="b">
         <v>1</v>
       </c>
       <c r="G184">
@@ -7343,13 +7343,13 @@
         <v>34782.37186296883</v>
       </c>
       <c r="J184">
-        <v>-6478312.362155765</v>
+        <v>-168452651.75106</v>
       </c>
       <c r="K184">
-        <v>-190525769.6150416</v>
+        <v>-4954156163.579197</v>
       </c>
       <c r="L184">
-        <v>-110079472.483472</v>
+        <v>-330238417.4504166</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7362,13 +7362,13 @@
       <c r="C185" s="2">
         <v>45412</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="b">
         <v>0</v>
       </c>
       <c r="E185">
         <v>68132962.52764796</v>
       </c>
-      <c r="F185">
+      <c r="F185" t="b">
         <v>0</v>
       </c>
       <c r="G185">
@@ -7400,13 +7400,13 @@
       <c r="C186" s="2">
         <v>45443</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="b">
         <v>0</v>
       </c>
       <c r="E186">
         <v>67363026.78731181</v>
       </c>
-      <c r="F186">
+      <c r="F186" t="b">
         <v>0</v>
       </c>
       <c r="G186">
@@ -7438,13 +7438,13 @@
       <c r="C187" s="2">
         <v>45473</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="b">
         <v>0</v>
       </c>
       <c r="E187">
         <v>87419675.1498996</v>
       </c>
-      <c r="F187">
+      <c r="F187" t="b">
         <v>1</v>
       </c>
       <c r="G187">
@@ -7476,13 +7476,13 @@
       <c r="C188" s="2">
         <v>45504</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="b">
         <v>0</v>
       </c>
       <c r="E188">
         <v>83999492.93166523</v>
       </c>
-      <c r="F188">
+      <c r="F188" t="b">
         <v>0</v>
       </c>
       <c r="G188">
@@ -7514,13 +7514,13 @@
       <c r="C189" s="2">
         <v>45535</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="b">
         <v>0</v>
       </c>
       <c r="E189">
         <v>82448522.49941714</v>
       </c>
-      <c r="F189">
+      <c r="F189" t="b">
         <v>1</v>
       </c>
       <c r="G189">
@@ -7552,13 +7552,13 @@
       <c r="C190" s="2">
         <v>45565</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="b">
         <v>0</v>
       </c>
       <c r="E190">
         <v>84076883.98095404</v>
       </c>
-      <c r="F190">
+      <c r="F190" t="b">
         <v>0</v>
       </c>
       <c r="G190">
@@ -7590,13 +7590,13 @@
       <c r="C191" s="2">
         <v>45596</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191">
         <v>90767599.00190741</v>
       </c>
-      <c r="F191">
+      <c r="F191" t="b">
         <v>0</v>
       </c>
       <c r="G191">
@@ -7628,13 +7628,13 @@
       <c r="C192" s="2">
         <v>45626</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="b">
         <v>0</v>
       </c>
       <c r="E192">
         <v>109417925.0155234</v>
       </c>
-      <c r="F192">
+      <c r="F192" t="b">
         <v>1</v>
       </c>
       <c r="G192">
@@ -7666,13 +7666,13 @@
       <c r="C193" s="2">
         <v>45657</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="b">
         <v>1</v>
       </c>
       <c r="E193">
         <v>109417925.0155234</v>
       </c>
-      <c r="F193">
+      <c r="F193" t="b">
         <v>0</v>
       </c>
       <c r="G193">
@@ -7704,13 +7704,13 @@
       <c r="C194" s="2">
         <v>44957</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="b">
         <v>0</v>
       </c>
       <c r="E194">
         <v>35321845</v>
       </c>
-      <c r="F194">
+      <c r="F194" t="b">
         <v>0</v>
       </c>
       <c r="G194">
@@ -7733,13 +7733,13 @@
       <c r="C195" s="2">
         <v>44985</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="b">
         <v>0</v>
       </c>
       <c r="E195">
         <v>32010307.64526802</v>
       </c>
-      <c r="F195">
+      <c r="F195" t="b">
         <v>0</v>
       </c>
       <c r="G195">
@@ -7771,13 +7771,13 @@
       <c r="C196" s="2">
         <v>45016</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="b">
         <v>0</v>
       </c>
       <c r="E196">
         <v>30334900.92325987</v>
       </c>
-      <c r="F196">
+      <c r="F196" t="b">
         <v>1</v>
       </c>
       <c r="G196">
@@ -7809,13 +7809,13 @@
       <c r="C197" s="2">
         <v>45046</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="b">
         <v>0</v>
       </c>
       <c r="E197">
         <v>25901686.63729769</v>
       </c>
-      <c r="F197">
+      <c r="F197" t="b">
         <v>1</v>
       </c>
       <c r="G197">
@@ -7847,13 +7847,13 @@
       <c r="C198" s="2">
         <v>45077</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="b">
         <v>0</v>
       </c>
       <c r="E198">
         <v>22499070.87745538</v>
       </c>
-      <c r="F198">
+      <c r="F198" t="b">
         <v>0</v>
       </c>
       <c r="G198">
@@ -7885,13 +7885,13 @@
       <c r="C199" s="2">
         <v>45107</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="b">
         <v>0</v>
       </c>
       <c r="E199">
         <v>19581737.81654632</v>
       </c>
-      <c r="F199">
+      <c r="F199" t="b">
         <v>0</v>
       </c>
       <c r="G199">
@@ -7923,13 +7923,13 @@
       <c r="C200" s="2">
         <v>45138</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="b">
         <v>0</v>
       </c>
       <c r="E200">
         <v>17237517.58043034</v>
       </c>
-      <c r="F200">
+      <c r="F200" t="b">
         <v>0</v>
       </c>
       <c r="G200">
@@ -7961,13 +7961,13 @@
       <c r="C201" s="2">
         <v>45169</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="b">
         <v>0</v>
       </c>
       <c r="E201">
         <v>15918727.34913279</v>
       </c>
-      <c r="F201">
+      <c r="F201" t="b">
         <v>0</v>
       </c>
       <c r="G201">
@@ -7999,13 +7999,13 @@
       <c r="C202" s="2">
         <v>45199</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="b">
         <v>0</v>
       </c>
       <c r="E202">
         <v>15446587.31868158</v>
       </c>
-      <c r="F202">
+      <c r="F202" t="b">
         <v>1</v>
       </c>
       <c r="G202">
@@ -8037,13 +8037,13 @@
       <c r="C203" s="2">
         <v>45230</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="b">
         <v>0</v>
       </c>
       <c r="E203">
         <v>15367596.77776353</v>
       </c>
-      <c r="F203">
+      <c r="F203" t="b">
         <v>0</v>
       </c>
       <c r="G203">
@@ -8075,13 +8075,13 @@
       <c r="C204" s="2">
         <v>45260</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="b">
         <v>0</v>
       </c>
       <c r="E204">
         <v>15116484.17383954</v>
       </c>
-      <c r="F204">
+      <c r="F204" t="b">
         <v>0</v>
       </c>
       <c r="G204">
@@ -8113,13 +8113,13 @@
       <c r="C205" s="2">
         <v>45291</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="b">
         <v>0</v>
       </c>
       <c r="E205">
         <v>14657733.12453835</v>
       </c>
-      <c r="F205">
+      <c r="F205" t="b">
         <v>1</v>
       </c>
       <c r="G205">
@@ -8151,13 +8151,13 @@
       <c r="C206" s="2">
         <v>45322</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="b">
         <v>0</v>
       </c>
       <c r="E206">
         <v>12266978.07802899</v>
       </c>
-      <c r="F206">
+      <c r="F206" t="b">
         <v>0</v>
       </c>
       <c r="G206">
@@ -8189,13 +8189,13 @@
       <c r="C207" s="2">
         <v>45351</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="b">
         <v>0</v>
       </c>
       <c r="E207">
         <v>10818319.79803803</v>
       </c>
-      <c r="F207">
+      <c r="F207" t="b">
         <v>0</v>
       </c>
       <c r="G207">
@@ -8227,13 +8227,13 @@
       <c r="C208" s="2">
         <v>45382</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="b">
         <v>0</v>
       </c>
       <c r="E208">
         <v>9653354.338776125</v>
       </c>
-      <c r="F208">
+      <c r="F208" t="b">
         <v>1</v>
       </c>
       <c r="G208">
@@ -8265,13 +8265,13 @@
       <c r="C209" s="2">
         <v>45412</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="b">
         <v>0</v>
       </c>
       <c r="E209">
         <v>8983097.978160568</v>
       </c>
-      <c r="F209">
+      <c r="F209" t="b">
         <v>0</v>
       </c>
       <c r="G209">
@@ -8303,13 +8303,13 @@
       <c r="C210" s="2">
         <v>45443</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="b">
         <v>0</v>
       </c>
       <c r="E210">
         <v>7733526.088202621</v>
       </c>
-      <c r="F210">
+      <c r="F210" t="b">
         <v>0</v>
       </c>
       <c r="G210">
@@ -8341,13 +8341,13 @@
       <c r="C211" s="2">
         <v>45473</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="b">
         <v>0</v>
       </c>
       <c r="E211">
         <v>6843458.274121938</v>
       </c>
-      <c r="F211">
+      <c r="F211" t="b">
         <v>1</v>
       </c>
       <c r="G211">
@@ -8379,13 +8379,13 @@
       <c r="C212" s="2">
         <v>45504</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="b">
         <v>0</v>
       </c>
       <c r="E212">
         <v>6841134.959792472</v>
       </c>
-      <c r="F212">
+      <c r="F212" t="b">
         <v>0</v>
       </c>
       <c r="G212">
@@ -8417,13 +8417,13 @@
       <c r="C213" s="2">
         <v>45535</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="b">
         <v>0</v>
       </c>
       <c r="E213">
         <v>6325167.030229177</v>
       </c>
-      <c r="F213">
+      <c r="F213" t="b">
         <v>1</v>
       </c>
       <c r="G213">
@@ -8455,13 +8455,13 @@
       <c r="C214" s="2">
         <v>45565</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="b">
         <v>0</v>
       </c>
       <c r="E214">
         <v>5827135.042866568</v>
       </c>
-      <c r="F214">
+      <c r="F214" t="b">
         <v>0</v>
       </c>
       <c r="G214">
@@ -8493,13 +8493,13 @@
       <c r="C215" s="2">
         <v>45596</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="b">
         <v>0</v>
       </c>
       <c r="E215">
         <v>4966646.350904749</v>
       </c>
-      <c r="F215">
+      <c r="F215" t="b">
         <v>0</v>
       </c>
       <c r="G215">
@@ -8531,13 +8531,13 @@
       <c r="C216" s="2">
         <v>45626</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="b">
         <v>0</v>
       </c>
       <c r="E216">
         <v>4418248.926419771</v>
       </c>
-      <c r="F216">
+      <c r="F216" t="b">
         <v>1</v>
       </c>
       <c r="G216">
@@ -8569,13 +8569,13 @@
       <c r="C217" s="2">
         <v>45657</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="b">
         <v>1</v>
       </c>
       <c r="E217">
         <v>4418248.926419771</v>
       </c>
-      <c r="F217">
+      <c r="F217" t="b">
         <v>0</v>
       </c>
       <c r="G217">
@@ -8607,13 +8607,13 @@
       <c r="C218" s="2">
         <v>44957</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="b">
         <v>0</v>
       </c>
       <c r="E218">
         <v>11906455</v>
       </c>
-      <c r="F218">
+      <c r="F218" t="b">
         <v>0</v>
       </c>
       <c r="G218">
@@ -8636,13 +8636,13 @@
       <c r="C219" s="2">
         <v>44985</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="b">
         <v>0</v>
       </c>
       <c r="E219">
         <v>10705279.01629904</v>
       </c>
-      <c r="F219">
+      <c r="F219" t="b">
         <v>1</v>
       </c>
       <c r="G219">
@@ -8674,13 +8674,13 @@
       <c r="C220" s="2">
         <v>45016</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="b">
         <v>0</v>
       </c>
       <c r="E220">
         <v>9433829.581443371</v>
       </c>
-      <c r="F220">
+      <c r="F220" t="b">
         <v>0</v>
       </c>
       <c r="G220">
@@ -8712,13 +8712,13 @@
       <c r="C221" s="2">
         <v>45046</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="b">
         <v>0</v>
       </c>
       <c r="E221">
         <v>9042878.353437096</v>
       </c>
-      <c r="F221">
+      <c r="F221" t="b">
         <v>1</v>
       </c>
       <c r="G221">
@@ -8750,13 +8750,13 @@
       <c r="C222" s="2">
         <v>45077</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="b">
         <v>0</v>
       </c>
       <c r="E222">
         <v>8153926.808133611</v>
       </c>
-      <c r="F222">
+      <c r="F222" t="b">
         <v>0</v>
       </c>
       <c r="G222">
@@ -8788,13 +8788,13 @@
       <c r="C223" s="2">
         <v>45107</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="b">
         <v>0</v>
       </c>
       <c r="E223">
         <v>8219483.778366768</v>
       </c>
-      <c r="F223">
+      <c r="F223" t="b">
         <v>0</v>
       </c>
       <c r="G223">
@@ -8826,13 +8826,13 @@
       <c r="C224" s="2">
         <v>45138</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="b">
         <v>0</v>
       </c>
       <c r="E224">
         <v>7414874.963199793</v>
       </c>
-      <c r="F224">
+      <c r="F224" t="b">
         <v>0</v>
       </c>
       <c r="G224">
@@ -8864,13 +8864,13 @@
       <c r="C225" s="2">
         <v>45169</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="b">
         <v>0</v>
       </c>
       <c r="E225">
         <v>6770238.839581112</v>
       </c>
-      <c r="F225">
+      <c r="F225" t="b">
         <v>0</v>
       </c>
       <c r="G225">
@@ -8902,13 +8902,13 @@
       <c r="C226" s="2">
         <v>45199</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="b">
         <v>0</v>
       </c>
       <c r="E226">
         <v>7049083.438094162</v>
       </c>
-      <c r="F226">
+      <c r="F226" t="b">
         <v>1</v>
       </c>
       <c r="G226">
@@ -8940,13 +8940,13 @@
       <c r="C227" s="2">
         <v>45230</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="b">
         <v>0</v>
       </c>
       <c r="E227">
         <v>6269002.943794951</v>
       </c>
-      <c r="F227">
+      <c r="F227" t="b">
         <v>0</v>
       </c>
       <c r="G227">
@@ -8978,13 +8978,13 @@
       <c r="C228" s="2">
         <v>45260</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="b">
         <v>0</v>
       </c>
       <c r="E228">
         <v>5799598.725460662</v>
       </c>
-      <c r="F228">
+      <c r="F228" t="b">
         <v>0</v>
       </c>
       <c r="G228">
@@ -9016,13 +9016,13 @@
       <c r="C229" s="2">
         <v>45291</v>
       </c>
-      <c r="D229">
+      <c r="D229" t="b">
         <v>0</v>
       </c>
       <c r="E229">
         <v>5321856.579820874</v>
       </c>
-      <c r="F229">
+      <c r="F229" t="b">
         <v>1</v>
       </c>
       <c r="G229">
@@ -9054,13 +9054,13 @@
       <c r="C230" s="2">
         <v>45322</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="b">
         <v>1</v>
       </c>
       <c r="E230">
         <v>5371360.773781364</v>
       </c>
-      <c r="F230">
+      <c r="F230" t="b">
         <v>0</v>
       </c>
       <c r="G230">
@@ -9092,13 +9092,13 @@
       <c r="C231" s="2">
         <v>45351</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="b">
         <v>0</v>
       </c>
       <c r="E231">
         <v>5032142.586786785</v>
       </c>
-      <c r="F231">
+      <c r="F231" t="b">
         <v>0</v>
       </c>
       <c r="G231">
@@ -9130,13 +9130,13 @@
       <c r="C232" s="2">
         <v>45382</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="b">
         <v>0</v>
       </c>
       <c r="E232">
         <v>4543615.076405493</v>
       </c>
-      <c r="F232">
+      <c r="F232" t="b">
         <v>1</v>
       </c>
       <c r="G232">
@@ -9168,13 +9168,13 @@
       <c r="C233" s="2">
         <v>45412</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="b">
         <v>0</v>
       </c>
       <c r="E233">
         <v>3970494.975784246</v>
       </c>
-      <c r="F233">
+      <c r="F233" t="b">
         <v>0</v>
       </c>
       <c r="G233">
@@ -9206,13 +9206,13 @@
       <c r="C234" s="2">
         <v>45443</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="b">
         <v>0</v>
       </c>
       <c r="E234">
         <v>3874202.707101303</v>
       </c>
-      <c r="F234">
+      <c r="F234" t="b">
         <v>0</v>
       </c>
       <c r="G234">
@@ -9244,13 +9244,13 @@
       <c r="C235" s="2">
         <v>45473</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="b">
         <v>0</v>
       </c>
       <c r="E235">
         <v>3676111.040549684</v>
       </c>
-      <c r="F235">
+      <c r="F235" t="b">
         <v>1</v>
       </c>
       <c r="G235">
@@ -9282,13 +9282,13 @@
       <c r="C236" s="2">
         <v>45504</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="b">
         <v>0</v>
       </c>
       <c r="E236">
         <v>3325761.357331468</v>
       </c>
-      <c r="F236">
+      <c r="F236" t="b">
         <v>0</v>
       </c>
       <c r="G236">
@@ -9320,13 +9320,13 @@
       <c r="C237" s="2">
         <v>45535</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="b">
         <v>0</v>
       </c>
       <c r="E237">
         <v>3291905.083045597</v>
       </c>
-      <c r="F237">
+      <c r="F237" t="b">
         <v>1</v>
       </c>
       <c r="G237">
@@ -9358,13 +9358,13 @@
       <c r="C238" s="2">
         <v>45565</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="b">
         <v>0</v>
       </c>
       <c r="E238">
         <v>2804917.619692543</v>
       </c>
-      <c r="F238">
+      <c r="F238" t="b">
         <v>0</v>
       </c>
       <c r="G238">
@@ -9396,13 +9396,13 @@
       <c r="C239" s="2">
         <v>45596</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="b">
         <v>0</v>
       </c>
       <c r="E239">
         <v>2734507.328756047</v>
       </c>
-      <c r="F239">
+      <c r="F239" t="b">
         <v>0</v>
       </c>
       <c r="G239">
@@ -9434,13 +9434,13 @@
       <c r="C240" s="2">
         <v>45626</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="b">
         <v>0</v>
       </c>
       <c r="E240">
         <v>2338508.027633435</v>
       </c>
-      <c r="F240">
+      <c r="F240" t="b">
         <v>1</v>
       </c>
       <c r="G240">
@@ -9472,13 +9472,13 @@
       <c r="C241" s="2">
         <v>45657</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="b">
         <v>1</v>
       </c>
       <c r="E241">
         <v>2338508.027633435</v>
       </c>
-      <c r="F241">
+      <c r="F241" t="b">
         <v>0</v>
       </c>
       <c r="G241">
@@ -9510,13 +9510,13 @@
       <c r="C242" s="2">
         <v>44957</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="b">
         <v>0</v>
       </c>
       <c r="E242">
         <v>36128129</v>
       </c>
-      <c r="F242">
+      <c r="F242" t="b">
         <v>0</v>
       </c>
       <c r="G242">
@@ -9539,13 +9539,13 @@
       <c r="C243" s="2">
         <v>44985</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="b">
         <v>0</v>
       </c>
       <c r="E243">
         <v>35716513.63062216</v>
       </c>
-      <c r="F243">
+      <c r="F243" t="b">
         <v>0</v>
       </c>
       <c r="G243">
@@ -9577,13 +9577,13 @@
       <c r="C244" s="2">
         <v>45016</v>
       </c>
-      <c r="D244">
+      <c r="D244" t="b">
         <v>0</v>
       </c>
       <c r="E244">
         <v>31299829.14633102</v>
       </c>
-      <c r="F244">
+      <c r="F244" t="b">
         <v>0</v>
       </c>
       <c r="G244">
@@ -9615,13 +9615,13 @@
       <c r="C245" s="2">
         <v>45046</v>
       </c>
-      <c r="D245">
+      <c r="D245" t="b">
         <v>0</v>
       </c>
       <c r="E245">
         <v>28683789.1234722</v>
       </c>
-      <c r="F245">
+      <c r="F245" t="b">
         <v>1</v>
       </c>
       <c r="G245">
@@ -9653,13 +9653,13 @@
       <c r="C246" s="2">
         <v>45077</v>
       </c>
-      <c r="D246">
+      <c r="D246" t="b">
         <v>0</v>
       </c>
       <c r="E246">
         <v>24446991.10404535</v>
       </c>
-      <c r="F246">
+      <c r="F246" t="b">
         <v>0</v>
       </c>
       <c r="G246">
@@ -9691,13 +9691,13 @@
       <c r="C247" s="2">
         <v>45107</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="b">
         <v>0</v>
       </c>
       <c r="E247">
         <v>24916056.61694869</v>
       </c>
-      <c r="F247">
+      <c r="F247" t="b">
         <v>0</v>
       </c>
       <c r="G247">
@@ -9729,13 +9729,13 @@
       <c r="C248" s="2">
         <v>45138</v>
       </c>
-      <c r="D248">
+      <c r="D248" t="b">
         <v>0</v>
       </c>
       <c r="E248">
         <v>19329500.19823727</v>
       </c>
-      <c r="F248">
+      <c r="F248" t="b">
         <v>0</v>
       </c>
       <c r="G248">
@@ -9767,13 +9767,13 @@
       <c r="C249" s="2">
         <v>45169</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="b">
         <v>0</v>
       </c>
       <c r="E249">
         <v>18964898.05145569</v>
       </c>
-      <c r="F249">
+      <c r="F249" t="b">
         <v>0</v>
       </c>
       <c r="G249">
@@ -9805,13 +9805,13 @@
       <c r="C250" s="2">
         <v>45199</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="b">
         <v>0</v>
       </c>
       <c r="E250">
         <v>18623086.16097767</v>
       </c>
-      <c r="F250">
+      <c r="F250" t="b">
         <v>1</v>
       </c>
       <c r="G250">
@@ -9843,13 +9843,13 @@
       <c r="C251" s="2">
         <v>45230</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="b">
         <v>0</v>
       </c>
       <c r="E251">
         <v>18176853.74009376</v>
       </c>
-      <c r="F251">
+      <c r="F251" t="b">
         <v>0</v>
       </c>
       <c r="G251">
@@ -9881,13 +9881,13 @@
       <c r="C252" s="2">
         <v>45260</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="b">
         <v>0</v>
       </c>
       <c r="E252">
         <v>16274432.43674877</v>
       </c>
-      <c r="F252">
+      <c r="F252" t="b">
         <v>0</v>
       </c>
       <c r="G252">
@@ -9919,13 +9919,13 @@
       <c r="C253" s="2">
         <v>45291</v>
       </c>
-      <c r="D253">
+      <c r="D253" t="b">
         <v>0</v>
       </c>
       <c r="E253">
         <v>16013357.25787364</v>
       </c>
-      <c r="F253">
+      <c r="F253" t="b">
         <v>1</v>
       </c>
       <c r="G253">
@@ -9957,13 +9957,13 @@
       <c r="C254" s="2">
         <v>45322</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="b">
         <v>0</v>
       </c>
       <c r="E254">
         <v>15002589.36323522</v>
       </c>
-      <c r="F254">
+      <c r="F254" t="b">
         <v>1</v>
       </c>
       <c r="G254">
@@ -9995,13 +9995,13 @@
       <c r="C255" s="2">
         <v>45351</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="b">
         <v>0</v>
       </c>
       <c r="E255">
         <v>13649495.28802661</v>
       </c>
-      <c r="F255">
+      <c r="F255" t="b">
         <v>0</v>
       </c>
       <c r="G255">
@@ -10033,13 +10033,13 @@
       <c r="C256" s="2">
         <v>45382</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="b">
         <v>0</v>
       </c>
       <c r="E256">
         <v>12967741.12897378</v>
       </c>
-      <c r="F256">
+      <c r="F256" t="b">
         <v>1</v>
       </c>
       <c r="G256">
@@ -10071,13 +10071,13 @@
       <c r="C257" s="2">
         <v>45412</v>
       </c>
-      <c r="D257">
+      <c r="D257" t="b">
         <v>0</v>
       </c>
       <c r="E257">
         <v>12153004.2019311</v>
       </c>
-      <c r="F257">
+      <c r="F257" t="b">
         <v>0</v>
       </c>
       <c r="G257">
@@ -10109,13 +10109,13 @@
       <c r="C258" s="2">
         <v>45443</v>
       </c>
-      <c r="D258">
+      <c r="D258" t="b">
         <v>0</v>
       </c>
       <c r="E258">
         <v>9643671.122756751</v>
       </c>
-      <c r="F258">
+      <c r="F258" t="b">
         <v>0</v>
       </c>
       <c r="G258">
@@ -10147,13 +10147,13 @@
       <c r="C259" s="2">
         <v>45473</v>
       </c>
-      <c r="D259">
+      <c r="D259" t="b">
         <v>0</v>
       </c>
       <c r="E259">
         <v>9342470.015729077</v>
       </c>
-      <c r="F259">
+      <c r="F259" t="b">
         <v>1</v>
       </c>
       <c r="G259">
@@ -10185,13 +10185,13 @@
       <c r="C260" s="2">
         <v>45504</v>
       </c>
-      <c r="D260">
+      <c r="D260" t="b">
         <v>0</v>
       </c>
       <c r="E260">
         <v>8306071.114717369</v>
       </c>
-      <c r="F260">
+      <c r="F260" t="b">
         <v>0</v>
       </c>
       <c r="G260">
@@ -10223,13 +10223,13 @@
       <c r="C261" s="2">
         <v>45535</v>
       </c>
-      <c r="D261">
+      <c r="D261" t="b">
         <v>0</v>
       </c>
       <c r="E261">
         <v>7854897.448434876</v>
       </c>
-      <c r="F261">
+      <c r="F261" t="b">
         <v>1</v>
       </c>
       <c r="G261">
@@ -10261,13 +10261,13 @@
       <c r="C262" s="2">
         <v>45565</v>
       </c>
-      <c r="D262">
+      <c r="D262" t="b">
         <v>0</v>
       </c>
       <c r="E262">
         <v>7160653.463537685</v>
       </c>
-      <c r="F262">
+      <c r="F262" t="b">
         <v>0</v>
       </c>
       <c r="G262">
@@ -10299,13 +10299,13 @@
       <c r="C263" s="2">
         <v>45596</v>
       </c>
-      <c r="D263">
+      <c r="D263" t="b">
         <v>0</v>
       </c>
       <c r="E263">
         <v>7065910.317704786</v>
       </c>
-      <c r="F263">
+      <c r="F263" t="b">
         <v>0</v>
       </c>
       <c r="G263">
@@ -10337,13 +10337,13 @@
       <c r="C264" s="2">
         <v>45626</v>
       </c>
-      <c r="D264">
+      <c r="D264" t="b">
         <v>0</v>
       </c>
       <c r="E264">
         <v>7791050.027233144</v>
       </c>
-      <c r="F264">
+      <c r="F264" t="b">
         <v>1</v>
       </c>
       <c r="G264">
@@ -10375,13 +10375,13 @@
       <c r="C265" s="2">
         <v>45657</v>
       </c>
-      <c r="D265">
+      <c r="D265" t="b">
         <v>1</v>
       </c>
       <c r="E265">
         <v>7791050.027233144</v>
       </c>
-      <c r="F265">
+      <c r="F265" t="b">
         <v>0</v>
       </c>
       <c r="G265">
@@ -10413,13 +10413,13 @@
       <c r="C266" s="2">
         <v>44957</v>
       </c>
-      <c r="D266">
+      <c r="D266" t="b">
         <v>0</v>
       </c>
       <c r="E266">
         <v>23641763</v>
       </c>
-      <c r="F266">
+      <c r="F266" t="b">
         <v>0</v>
       </c>
       <c r="G266">
@@ -10442,13 +10442,13 @@
       <c r="C267" s="2">
         <v>44985</v>
       </c>
-      <c r="D267">
+      <c r="D267" t="b">
         <v>0</v>
       </c>
       <c r="E267">
         <v>20536097.22467626</v>
       </c>
-      <c r="F267">
+      <c r="F267" t="b">
         <v>0</v>
       </c>
       <c r="G267">
@@ -10480,13 +10480,13 @@
       <c r="C268" s="2">
         <v>45016</v>
       </c>
-      <c r="D268">
+      <c r="D268" t="b">
         <v>0</v>
       </c>
       <c r="E268">
         <v>18291127.98008165</v>
       </c>
-      <c r="F268">
+      <c r="F268" t="b">
         <v>0</v>
       </c>
       <c r="G268">
@@ -10518,32 +10518,32 @@
       <c r="C269" s="2">
         <v>45046</v>
       </c>
-      <c r="D269">
+      <c r="D269" t="b">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>6017795.4623624</v>
-      </c>
-      <c r="F269">
+        <v>18053386.3870872</v>
+      </c>
+      <c r="F269" t="b">
         <v>1</v>
       </c>
       <c r="G269">
         <v>24.45301574129639</v>
       </c>
       <c r="H269">
-        <v>147153247.1690498</v>
+        <v>441459741.5071493</v>
       </c>
       <c r="I269">
-        <v>2335.765828080155</v>
+        <v>7007.297484240465</v>
       </c>
       <c r="J269">
-        <v>-12273332.51771925</v>
+        <v>-237741.5929944515</v>
       </c>
       <c r="K269">
-        <v>-300119993.2539537</v>
+        <v>-5813498.915854203</v>
       </c>
       <c r="L269">
-        <v>-65630402.27416921</v>
+        <v>-65630402.27416922</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10556,32 +10556,32 @@
       <c r="C270" s="2">
         <v>45077</v>
       </c>
-      <c r="D270">
+      <c r="D270" t="b">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>5114006.037408817</v>
-      </c>
-      <c r="F270">
+        <v>15342018.11222645</v>
+      </c>
+      <c r="F270" t="b">
         <v>0</v>
       </c>
       <c r="G270">
         <v>30.21641044652872</v>
       </c>
       <c r="H270">
-        <v>154526905.4523707</v>
+        <v>463580716.3571122</v>
       </c>
       <c r="I270">
-        <v>2452.808023053503</v>
+        <v>7358.42406916051</v>
       </c>
       <c r="J270">
-        <v>-903789.4249535836</v>
+        <v>-2711368.274860749</v>
       </c>
       <c r="K270">
-        <v>-27309272.22162965</v>
+        <v>-81927816.66488889</v>
       </c>
       <c r="L270">
-        <v>34682930.50495058</v>
+        <v>104048791.5148518</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10594,32 +10594,32 @@
       <c r="C271" s="2">
         <v>45107</v>
       </c>
-      <c r="D271">
+      <c r="D271" t="b">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>4901993.163508143</v>
-      </c>
-      <c r="F271">
+        <v>14705979.49052443</v>
+      </c>
+      <c r="F271" t="b">
         <v>0</v>
       </c>
       <c r="G271">
         <v>32.93008848638497</v>
       </c>
       <c r="H271">
-        <v>161423068.6339773</v>
+        <v>484269205.901932</v>
       </c>
       <c r="I271">
-        <v>2562.270930698053</v>
+        <v>7686.812792094159</v>
       </c>
       <c r="J271">
-        <v>-212012.8739006734</v>
+        <v>-636038.621702021</v>
       </c>
       <c r="K271">
-        <v>-6981602.697801951</v>
+        <v>-20944808.09340588</v>
       </c>
       <c r="L271">
-        <v>13877765.87940857</v>
+        <v>41633297.63822572</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10632,32 +10632,32 @@
       <c r="C272" s="2">
         <v>45138</v>
       </c>
-      <c r="D272">
+      <c r="D272" t="b">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>4631615.64492943</v>
-      </c>
-      <c r="F272">
+        <v>13894846.93478829</v>
+      </c>
+      <c r="F272" t="b">
         <v>0</v>
       </c>
       <c r="G272">
         <v>35.00765366760461</v>
       </c>
       <c r="H272">
-        <v>162141996.4191487</v>
+        <v>486425989.2574459</v>
       </c>
       <c r="I272">
-        <v>2573.682482843629</v>
+        <v>7721.047448530888</v>
       </c>
       <c r="J272">
-        <v>-270377.5185787128</v>
+        <v>-811132.5557361394</v>
       </c>
       <c r="K272">
-        <v>-9465282.529909909</v>
+        <v>-28395847.58972976</v>
       </c>
       <c r="L272">
-        <v>10184210.31508124</v>
+        <v>30552630.94524369</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10670,32 +10670,32 @@
       <c r="C273" s="2">
         <v>45169</v>
       </c>
-      <c r="D273">
+      <c r="D273" t="b">
         <v>0</v>
       </c>
       <c r="E273">
-        <v>4046816.987674357</v>
-      </c>
-      <c r="F273">
+        <v>12140450.96302307</v>
+      </c>
+      <c r="F273" t="b">
         <v>0</v>
       </c>
       <c r="G273">
         <v>26.83151320771734</v>
       </c>
       <c r="H273">
-        <v>108582223.4539994</v>
+        <v>325746670.3619982</v>
       </c>
       <c r="I273">
-        <v>1723.527356412689</v>
+        <v>5170.582069238067</v>
       </c>
       <c r="J273">
-        <v>-584798.6572550735</v>
+        <v>-1754395.97176522</v>
       </c>
       <c r="K273">
-        <v>-15691032.89599487</v>
+        <v>-47073098.6879846</v>
       </c>
       <c r="L273">
-        <v>-37868740.06915438</v>
+        <v>-113606220.2074631</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10708,32 +10708,32 @@
       <c r="C274" s="2">
         <v>45199</v>
       </c>
-      <c r="D274">
+      <c r="D274" t="b">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>3551218.548238527</v>
-      </c>
-      <c r="F274">
+        <v>10653655.64471558</v>
+      </c>
+      <c r="F274" t="b">
         <v>1</v>
       </c>
       <c r="G274">
         <v>29.53588197762351</v>
       </c>
       <c r="H274">
-        <v>104888371.9175206</v>
+        <v>314665115.7525619</v>
       </c>
       <c r="I274">
-        <v>1664.894792341597</v>
+        <v>4994.684377024792</v>
       </c>
       <c r="J274">
-        <v>-495598.4394358303</v>
+        <v>-1486795.318307491</v>
       </c>
       <c r="K274">
-        <v>-14637937.01547108</v>
+        <v>-43913811.04641324</v>
       </c>
       <c r="L274">
-        <v>10944085.47899231</v>
+        <v>32832256.4369769</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10746,32 +10746,32 @@
       <c r="C275" s="2">
         <v>45230</v>
       </c>
-      <c r="D275">
+      <c r="D275" t="b">
         <v>0</v>
       </c>
       <c r="E275">
-        <v>3869632.834672603</v>
-      </c>
-      <c r="F275">
+        <v>11608898.50401781</v>
+      </c>
+      <c r="F275" t="b">
         <v>0</v>
       </c>
       <c r="G275">
         <v>26.75727530339264</v>
       </c>
       <c r="H275">
-        <v>103540831.0803825</v>
+        <v>310622493.2411475</v>
       </c>
       <c r="I275">
-        <v>1643.505255244167</v>
+        <v>4930.515765732499</v>
       </c>
       <c r="J275">
-        <v>318414.2864340767</v>
+        <v>955242.8593022302</v>
       </c>
       <c r="K275">
-        <v>8519898.722649911</v>
+        <v>25559696.16794973</v>
       </c>
       <c r="L275">
-        <v>-9867439.559788043</v>
+        <v>-29602318.67936414</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10784,32 +10784,32 @@
       <c r="C276" s="2">
         <v>45260</v>
       </c>
-      <c r="D276">
+      <c r="D276" t="b">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>3304442.601583384</v>
-      </c>
-      <c r="F276">
+        <v>9913327.804750152</v>
+      </c>
+      <c r="F276" t="b">
         <v>0</v>
       </c>
       <c r="G276">
         <v>26.60127477418531</v>
       </c>
       <c r="H276">
-        <v>87902385.62024336</v>
+        <v>263707156.8607301</v>
       </c>
       <c r="I276">
-        <v>1395.275962226085</v>
+        <v>4185.827886678255</v>
       </c>
       <c r="J276">
-        <v>-565190.2330892193</v>
+        <v>-1695570.699267657</v>
       </c>
       <c r="K276">
-        <v>-15034780.69009217</v>
+        <v>-45104342.07027648</v>
       </c>
       <c r="L276">
-        <v>-603664.7700469755</v>
+        <v>-1810994.310140923</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10822,32 +10822,32 @@
       <c r="C277" s="2">
         <v>45291</v>
       </c>
-      <c r="D277">
+      <c r="D277" t="b">
         <v>0</v>
       </c>
       <c r="E277">
-        <v>3268721.753066876</v>
-      </c>
-      <c r="F277">
+        <v>9806165.259200629</v>
+      </c>
+      <c r="F277" t="b">
         <v>1</v>
       </c>
       <c r="G277">
         <v>39.12556347492684</v>
       </c>
       <c r="H277">
-        <v>127890580.4314922</v>
+        <v>383671741.2944766</v>
       </c>
       <c r="I277">
-        <v>2030.009213198289</v>
+        <v>6090.027639594867</v>
       </c>
       <c r="J277">
-        <v>-35720.84851650754</v>
+        <v>-107162.5455495231</v>
       </c>
       <c r="K277">
-        <v>-1397598.326010862</v>
+        <v>-4192794.978032604</v>
       </c>
       <c r="L277">
-        <v>41385793.13725973</v>
+        <v>124157379.4117792</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10860,32 +10860,32 @@
       <c r="C278" s="2">
         <v>45322</v>
       </c>
-      <c r="D278">
+      <c r="D278" t="b">
         <v>1</v>
       </c>
       <c r="E278">
-        <v>3270003.699951148</v>
-      </c>
-      <c r="F278">
+        <v>9810011.099853445</v>
+      </c>
+      <c r="F278" t="b">
         <v>0</v>
       </c>
       <c r="G278">
         <v>35.16570486701028</v>
       </c>
       <c r="H278">
-        <v>114991985.0265137</v>
+        <v>344975955.0795411</v>
       </c>
       <c r="I278">
-        <v>1825.269603595455</v>
+        <v>5475.808810786367</v>
       </c>
       <c r="J278">
-        <v>1281.946884271689</v>
+        <v>3845.840652815998</v>
       </c>
       <c r="K278">
-        <v>45080.56578748159</v>
+        <v>135241.6973624775</v>
       </c>
       <c r="L278">
-        <v>-12943675.97076601</v>
+        <v>-38831027.91229796</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10898,32 +10898,32 @@
       <c r="C279" s="2">
         <v>45351</v>
       </c>
-      <c r="D279">
+      <c r="D279" t="b">
         <v>1</v>
       </c>
       <c r="E279">
-        <v>2819052.356878679</v>
-      </c>
-      <c r="F279">
+        <v>8457157.070636036</v>
+      </c>
+      <c r="F279" t="b">
         <v>0</v>
       </c>
       <c r="G279">
         <v>30.76900549638855</v>
       </c>
       <c r="H279">
-        <v>86739437.46340717</v>
+        <v>260218312.3902215</v>
       </c>
       <c r="I279">
-        <v>1376.81646767313</v>
+        <v>4130.449403019388</v>
       </c>
       <c r="J279">
-        <v>-450951.3430724693</v>
+        <v>-1352854.029217409</v>
       </c>
       <c r="K279">
-        <v>-13875324.35360061</v>
+        <v>-41625973.06080186</v>
       </c>
       <c r="L279">
-        <v>-14377223.20950591</v>
+        <v>-43131669.62851781</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10936,13 +10936,13 @@
       <c r="C280" s="2">
         <v>45382</v>
       </c>
-      <c r="D280">
+      <c r="D280" t="b">
         <v>0</v>
       </c>
       <c r="E280">
         <v>2632392.037305259</v>
       </c>
-      <c r="F280">
+      <c r="F280" t="b">
         <v>1</v>
       </c>
       <c r="G280">
@@ -10955,13 +10955,13 @@
         <v>1228.858447289353</v>
       </c>
       <c r="J280">
-        <v>-186660.3195734196</v>
+        <v>-5824765.033330777</v>
       </c>
       <c r="K280">
-        <v>-5489639.748010083</v>
+        <v>-171305083.6024887</v>
       </c>
       <c r="L280">
-        <v>-3831715.536167861</v>
+        <v>-11495146.60850355</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10974,13 +10974,13 @@
       <c r="C281" s="2">
         <v>45412</v>
       </c>
-      <c r="D281">
+      <c r="D281" t="b">
         <v>1</v>
       </c>
       <c r="E281">
         <v>2371942.533072743</v>
       </c>
-      <c r="F281">
+      <c r="F281" t="b">
         <v>0</v>
       </c>
       <c r="G281">
@@ -11012,13 +11012,13 @@
       <c r="C282" s="2">
         <v>45443</v>
       </c>
-      <c r="D282">
+      <c r="D282" t="b">
         <v>0</v>
       </c>
       <c r="E282">
         <v>2194489.114371221</v>
       </c>
-      <c r="F282">
+      <c r="F282" t="b">
         <v>0</v>
       </c>
       <c r="G282">
@@ -11050,13 +11050,13 @@
       <c r="C283" s="2">
         <v>45473</v>
       </c>
-      <c r="D283">
+      <c r="D283" t="b">
         <v>0</v>
       </c>
       <c r="E283">
         <v>2041749.468698347</v>
       </c>
-      <c r="F283">
+      <c r="F283" t="b">
         <v>1</v>
       </c>
       <c r="G283">
@@ -11088,13 +11088,13 @@
       <c r="C284" s="2">
         <v>45504</v>
       </c>
-      <c r="D284">
+      <c r="D284" t="b">
         <v>0</v>
       </c>
       <c r="E284">
         <v>1801074.893359914</v>
       </c>
-      <c r="F284">
+      <c r="F284" t="b">
         <v>0</v>
       </c>
       <c r="G284">
@@ -11126,13 +11126,13 @@
       <c r="C285" s="2">
         <v>45535</v>
       </c>
-      <c r="D285">
+      <c r="D285" t="b">
         <v>0</v>
       </c>
       <c r="E285">
         <v>1621690.823009637</v>
       </c>
-      <c r="F285">
+      <c r="F285" t="b">
         <v>1</v>
       </c>
       <c r="G285">
@@ -11164,13 +11164,13 @@
       <c r="C286" s="2">
         <v>45565</v>
       </c>
-      <c r="D286">
+      <c r="D286" t="b">
         <v>0</v>
       </c>
       <c r="E286">
         <v>1583784.708300194</v>
       </c>
-      <c r="F286">
+      <c r="F286" t="b">
         <v>0</v>
       </c>
       <c r="G286">
@@ -11202,13 +11202,13 @@
       <c r="C287" s="2">
         <v>45596</v>
       </c>
-      <c r="D287">
+      <c r="D287" t="b">
         <v>0</v>
       </c>
       <c r="E287">
         <v>1578282.827605341</v>
       </c>
-      <c r="F287">
+      <c r="F287" t="b">
         <v>0</v>
       </c>
       <c r="G287">
@@ -11240,13 +11240,13 @@
       <c r="C288" s="2">
         <v>45626</v>
       </c>
-      <c r="D288">
+      <c r="D288" t="b">
         <v>0</v>
       </c>
       <c r="E288">
         <v>1432397.49775516</v>
       </c>
-      <c r="F288">
+      <c r="F288" t="b">
         <v>1</v>
       </c>
       <c r="G288">
@@ -11278,13 +11278,13 @@
       <c r="C289" s="2">
         <v>45657</v>
       </c>
-      <c r="D289">
+      <c r="D289" t="b">
         <v>1</v>
       </c>
       <c r="E289">
         <v>1432397.49775516</v>
       </c>
-      <c r="F289">
+      <c r="F289" t="b">
         <v>0</v>
       </c>
       <c r="G289">
@@ -11316,13 +11316,13 @@
       <c r="C290" s="2">
         <v>44957</v>
       </c>
-      <c r="D290">
+      <c r="D290" t="b">
         <v>0</v>
       </c>
       <c r="E290">
         <v>716538396</v>
       </c>
-      <c r="F290">
+      <c r="F290" t="b">
         <v>0</v>
       </c>
       <c r="G290">
@@ -11345,13 +11345,13 @@
       <c r="C291" s="2">
         <v>44985</v>
       </c>
-      <c r="D291">
+      <c r="D291" t="b">
         <v>0</v>
       </c>
       <c r="E291">
         <v>857382613.4098774</v>
       </c>
-      <c r="F291">
+      <c r="F291" t="b">
         <v>0</v>
       </c>
       <c r="G291">
@@ -11383,13 +11383,13 @@
       <c r="C292" s="2">
         <v>45016</v>
       </c>
-      <c r="D292">
+      <c r="D292" t="b">
         <v>0</v>
       </c>
       <c r="E292">
         <v>782300268.9870527</v>
       </c>
-      <c r="F292">
+      <c r="F292" t="b">
         <v>1</v>
       </c>
       <c r="G292">
@@ -11421,13 +11421,13 @@
       <c r="C293" s="2">
         <v>45046</v>
       </c>
-      <c r="D293">
+      <c r="D293" t="b">
         <v>0</v>
       </c>
       <c r="E293">
         <v>931203944.6849921</v>
       </c>
-      <c r="F293">
+      <c r="F293" t="b">
         <v>1</v>
       </c>
       <c r="G293">
@@ -11459,13 +11459,13 @@
       <c r="C294" s="2">
         <v>45077</v>
       </c>
-      <c r="D294">
+      <c r="D294" t="b">
         <v>0</v>
       </c>
       <c r="E294">
         <v>991694257.7966628</v>
       </c>
-      <c r="F294">
+      <c r="F294" t="b">
         <v>0</v>
       </c>
       <c r="G294">
@@ -11497,13 +11497,13 @@
       <c r="C295" s="2">
         <v>45107</v>
       </c>
-      <c r="D295">
+      <c r="D295" t="b">
         <v>0</v>
       </c>
       <c r="E295">
         <v>1296979876.458894</v>
       </c>
-      <c r="F295">
+      <c r="F295" t="b">
         <v>0</v>
       </c>
       <c r="G295">
@@ -11535,13 +11535,13 @@
       <c r="C296" s="2">
         <v>45138</v>
       </c>
-      <c r="D296">
+      <c r="D296" t="b">
         <v>0</v>
       </c>
       <c r="E296">
         <v>1101756201.427541</v>
       </c>
-      <c r="F296">
+      <c r="F296" t="b">
         <v>0</v>
       </c>
       <c r="G296">
@@ -11573,13 +11573,13 @@
       <c r="C297" s="2">
         <v>45169</v>
       </c>
-      <c r="D297">
+      <c r="D297" t="b">
         <v>0</v>
       </c>
       <c r="E297">
         <v>1153673769.458448</v>
       </c>
-      <c r="F297">
+      <c r="F297" t="b">
         <v>0</v>
       </c>
       <c r="G297">
@@ -11611,13 +11611,13 @@
       <c r="C298" s="2">
         <v>45199</v>
       </c>
-      <c r="D298">
+      <c r="D298" t="b">
         <v>0</v>
       </c>
       <c r="E298">
         <v>1096972119.893127</v>
       </c>
-      <c r="F298">
+      <c r="F298" t="b">
         <v>1</v>
       </c>
       <c r="G298">
@@ -11649,13 +11649,13 @@
       <c r="C299" s="2">
         <v>45230</v>
       </c>
-      <c r="D299">
+      <c r="D299" t="b">
         <v>0</v>
       </c>
       <c r="E299">
         <v>1004050313.576394</v>
       </c>
-      <c r="F299">
+      <c r="F299" t="b">
         <v>0</v>
       </c>
       <c r="G299">
@@ -11687,13 +11687,13 @@
       <c r="C300" s="2">
         <v>45260</v>
       </c>
-      <c r="D300">
+      <c r="D300" t="b">
         <v>0</v>
       </c>
       <c r="E300">
         <v>1089654372.705015</v>
       </c>
-      <c r="F300">
+      <c r="F300" t="b">
         <v>0</v>
       </c>
       <c r="G300">
@@ -11725,13 +11725,13 @@
       <c r="C301" s="2">
         <v>45291</v>
       </c>
-      <c r="D301">
+      <c r="D301" t="b">
         <v>0</v>
       </c>
       <c r="E301">
         <v>1048612569.402468</v>
       </c>
-      <c r="F301">
+      <c r="F301" t="b">
         <v>1</v>
       </c>
       <c r="G301">
@@ -11763,13 +11763,13 @@
       <c r="C302" s="2">
         <v>45322</v>
       </c>
-      <c r="D302">
+      <c r="D302" t="b">
         <v>0</v>
       </c>
       <c r="E302">
         <v>1128631256.575222</v>
       </c>
-      <c r="F302">
+      <c r="F302" t="b">
         <v>0</v>
       </c>
       <c r="G302">
@@ -11801,13 +11801,13 @@
       <c r="C303" s="2">
         <v>45351</v>
       </c>
-      <c r="D303">
+      <c r="D303" t="b">
         <v>0</v>
       </c>
       <c r="E303">
         <v>1053813550.854653</v>
       </c>
-      <c r="F303">
+      <c r="F303" t="b">
         <v>0</v>
       </c>
       <c r="G303">
@@ -11839,13 +11839,13 @@
       <c r="C304" s="2">
         <v>45382</v>
       </c>
-      <c r="D304">
+      <c r="D304" t="b">
         <v>0</v>
       </c>
       <c r="E304">
         <v>1053387748.458048</v>
       </c>
-      <c r="F304">
+      <c r="F304" t="b">
         <v>1</v>
       </c>
       <c r="G304">
@@ -11877,13 +11877,13 @@
       <c r="C305" s="2">
         <v>45412</v>
       </c>
-      <c r="D305">
+      <c r="D305" t="b">
         <v>0</v>
       </c>
       <c r="E305">
         <v>1195057621.747008</v>
       </c>
-      <c r="F305">
+      <c r="F305" t="b">
         <v>0</v>
       </c>
       <c r="G305">
@@ -11915,13 +11915,13 @@
       <c r="C306" s="2">
         <v>45443</v>
       </c>
-      <c r="D306">
+      <c r="D306" t="b">
         <v>0</v>
       </c>
       <c r="E306">
         <v>1232242385.254398</v>
       </c>
-      <c r="F306">
+      <c r="F306" t="b">
         <v>0</v>
       </c>
       <c r="G306">
@@ -11953,13 +11953,13 @@
       <c r="C307" s="2">
         <v>45473</v>
       </c>
-      <c r="D307">
+      <c r="D307" t="b">
         <v>1</v>
       </c>
       <c r="E307">
         <v>1341078498.944639</v>
       </c>
-      <c r="F307">
+      <c r="F307" t="b">
         <v>1</v>
       </c>
       <c r="G307">
@@ -11991,13 +11991,13 @@
       <c r="C308" s="2">
         <v>45504</v>
       </c>
-      <c r="D308">
+      <c r="D308" t="b">
         <v>0</v>
       </c>
       <c r="E308">
         <v>1467458226.041623</v>
       </c>
-      <c r="F308">
+      <c r="F308" t="b">
         <v>0</v>
       </c>
       <c r="G308">
@@ -12029,13 +12029,13 @@
       <c r="C309" s="2">
         <v>45535</v>
       </c>
-      <c r="D309">
+      <c r="D309" t="b">
         <v>0</v>
       </c>
       <c r="E309">
         <v>1692164987.45644</v>
       </c>
-      <c r="F309">
+      <c r="F309" t="b">
         <v>1</v>
       </c>
       <c r="G309">
@@ -12067,13 +12067,13 @@
       <c r="C310" s="2">
         <v>45565</v>
       </c>
-      <c r="D310">
+      <c r="D310" t="b">
         <v>1</v>
       </c>
       <c r="E310">
         <v>1687895381.607224</v>
       </c>
-      <c r="F310">
+      <c r="F310" t="b">
         <v>0</v>
       </c>
       <c r="G310">
@@ -12105,13 +12105,13 @@
       <c r="C311" s="2">
         <v>45596</v>
       </c>
-      <c r="D311">
+      <c r="D311" t="b">
         <v>0</v>
       </c>
       <c r="E311">
         <v>1867130745.211152</v>
       </c>
-      <c r="F311">
+      <c r="F311" t="b">
         <v>0</v>
       </c>
       <c r="G311">
@@ -12143,13 +12143,13 @@
       <c r="C312" s="2">
         <v>45626</v>
       </c>
-      <c r="D312">
+      <c r="D312" t="b">
         <v>0</v>
       </c>
       <c r="E312">
         <v>2219056402.215116</v>
       </c>
-      <c r="F312">
+      <c r="F312" t="b">
         <v>1</v>
       </c>
       <c r="G312">
@@ -12181,13 +12181,13 @@
       <c r="C313" s="2">
         <v>45657</v>
       </c>
-      <c r="D313">
+      <c r="D313" t="b">
         <v>1</v>
       </c>
       <c r="E313">
         <v>2219056402.215116</v>
       </c>
-      <c r="F313">
+      <c r="F313" t="b">
         <v>0</v>
       </c>
       <c r="G313">
@@ -12219,13 +12219,13 @@
       <c r="C314" s="2">
         <v>44957</v>
       </c>
-      <c r="D314">
+      <c r="D314" t="b">
         <v>0</v>
       </c>
       <c r="E314">
         <v>1812223800</v>
       </c>
-      <c r="F314">
+      <c r="F314" t="b">
         <v>0</v>
       </c>
       <c r="G314">
@@ -12248,13 +12248,13 @@
       <c r="C315" s="2">
         <v>44985</v>
       </c>
-      <c r="D315">
+      <c r="D315" t="b">
         <v>0</v>
       </c>
       <c r="E315">
         <v>2140378312.061018</v>
       </c>
-      <c r="F315">
+      <c r="F315" t="b">
         <v>1</v>
       </c>
       <c r="G315">
@@ -12286,13 +12286,13 @@
       <c r="C316" s="2">
         <v>45016</v>
       </c>
-      <c r="D316">
+      <c r="D316" t="b">
         <v>0</v>
       </c>
       <c r="E316">
         <v>2558200394.3192</v>
       </c>
-      <c r="F316">
+      <c r="F316" t="b">
         <v>0</v>
       </c>
       <c r="G316">
@@ -12324,13 +12324,13 @@
       <c r="C317" s="2">
         <v>45046</v>
       </c>
-      <c r="D317">
+      <c r="D317" t="b">
         <v>0</v>
       </c>
       <c r="E317">
         <v>2913650358.542886</v>
       </c>
-      <c r="F317">
+      <c r="F317" t="b">
         <v>1</v>
       </c>
       <c r="G317">
@@ -12362,13 +12362,13 @@
       <c r="C318" s="2">
         <v>45077</v>
       </c>
-      <c r="D318">
+      <c r="D318" t="b">
         <v>0</v>
       </c>
       <c r="E318">
         <v>3283763866.982055</v>
       </c>
-      <c r="F318">
+      <c r="F318" t="b">
         <v>0</v>
       </c>
       <c r="G318">
@@ -12400,13 +12400,13 @@
       <c r="C319" s="2">
         <v>45107</v>
       </c>
-      <c r="D319">
+      <c r="D319" t="b">
         <v>0</v>
       </c>
       <c r="E319">
         <v>3625825170.592832</v>
       </c>
-      <c r="F319">
+      <c r="F319" t="b">
         <v>0</v>
       </c>
       <c r="G319">
@@ -12438,13 +12438,13 @@
       <c r="C320" s="2">
         <v>45138</v>
       </c>
-      <c r="D320">
+      <c r="D320" t="b">
         <v>0</v>
       </c>
       <c r="E320">
         <v>3443890167.471551</v>
       </c>
-      <c r="F320">
+      <c r="F320" t="b">
         <v>0</v>
       </c>
       <c r="G320">
@@ -12476,13 +12476,13 @@
       <c r="C321" s="2">
         <v>45169</v>
       </c>
-      <c r="D321">
+      <c r="D321" t="b">
         <v>0</v>
       </c>
       <c r="E321">
         <v>3160567337.330597</v>
       </c>
-      <c r="F321">
+      <c r="F321" t="b">
         <v>0</v>
       </c>
       <c r="G321">
@@ -12514,13 +12514,13 @@
       <c r="C322" s="2">
         <v>45199</v>
       </c>
-      <c r="D322">
+      <c r="D322" t="b">
         <v>0</v>
       </c>
       <c r="E322">
         <v>3499436712.772047</v>
       </c>
-      <c r="F322">
+      <c r="F322" t="b">
         <v>1</v>
       </c>
       <c r="G322">
@@ -12552,13 +12552,13 @@
       <c r="C323" s="2">
         <v>45230</v>
       </c>
-      <c r="D323">
+      <c r="D323" t="b">
         <v>0</v>
       </c>
       <c r="E323">
         <v>3914595420.072975</v>
       </c>
-      <c r="F323">
+      <c r="F323" t="b">
         <v>0</v>
       </c>
       <c r="G323">
@@ -12590,13 +12590,13 @@
       <c r="C324" s="2">
         <v>45260</v>
       </c>
-      <c r="D324">
+      <c r="D324" t="b">
         <v>0</v>
       </c>
       <c r="E324">
         <v>3578299954.81165</v>
       </c>
-      <c r="F324">
+      <c r="F324" t="b">
         <v>0</v>
       </c>
       <c r="G324">
@@ -12628,13 +12628,13 @@
       <c r="C325" s="2">
         <v>45291</v>
       </c>
-      <c r="D325">
+      <c r="D325" t="b">
         <v>0</v>
       </c>
       <c r="E325">
         <v>4216724220.102512</v>
       </c>
-      <c r="F325">
+      <c r="F325" t="b">
         <v>1</v>
       </c>
       <c r="G325">
@@ -12666,13 +12666,13 @@
       <c r="C326" s="2">
         <v>45322</v>
       </c>
-      <c r="D326">
+      <c r="D326" t="b">
         <v>0</v>
       </c>
       <c r="E326">
         <v>3910346280.626862</v>
       </c>
-      <c r="F326">
+      <c r="F326" t="b">
         <v>0</v>
       </c>
       <c r="G326">
@@ -12704,13 +12704,13 @@
       <c r="C327" s="2">
         <v>45351</v>
       </c>
-      <c r="D327">
+      <c r="D327" t="b">
         <v>0</v>
       </c>
       <c r="E327">
         <v>3854702679.222613</v>
       </c>
-      <c r="F327">
+      <c r="F327" t="b">
         <v>0</v>
       </c>
       <c r="G327">
@@ -12742,13 +12742,13 @@
       <c r="C328" s="2">
         <v>45382</v>
       </c>
-      <c r="D328">
+      <c r="D328" t="b">
         <v>0</v>
       </c>
       <c r="E328">
         <v>4246791255.163498</v>
       </c>
-      <c r="F328">
+      <c r="F328" t="b">
         <v>1</v>
       </c>
       <c r="G328">
@@ -12780,13 +12780,13 @@
       <c r="C329" s="2">
         <v>45412</v>
       </c>
-      <c r="D329">
+      <c r="D329" t="b">
         <v>0</v>
       </c>
       <c r="E329">
         <v>4038536164.169808</v>
       </c>
-      <c r="F329">
+      <c r="F329" t="b">
         <v>0</v>
       </c>
       <c r="G329">
@@ -12818,13 +12818,13 @@
       <c r="C330" s="2">
         <v>45443</v>
       </c>
-      <c r="D330">
+      <c r="D330" t="b">
         <v>0</v>
       </c>
       <c r="E330">
         <v>3701822268.615909</v>
       </c>
-      <c r="F330">
+      <c r="F330" t="b">
         <v>0</v>
       </c>
       <c r="G330">
@@ -12856,13 +12856,13 @@
       <c r="C331" s="2">
         <v>45473</v>
       </c>
-      <c r="D331">
+      <c r="D331" t="b">
         <v>0</v>
       </c>
       <c r="E331">
         <v>4069333043.691153</v>
       </c>
-      <c r="F331">
+      <c r="F331" t="b">
         <v>1</v>
       </c>
       <c r="G331">
@@ -12894,13 +12894,13 @@
       <c r="C332" s="2">
         <v>45504</v>
       </c>
-      <c r="D332">
+      <c r="D332" t="b">
         <v>0</v>
       </c>
       <c r="E332">
         <v>4179543428.498124</v>
       </c>
-      <c r="F332">
+      <c r="F332" t="b">
         <v>0</v>
       </c>
       <c r="G332">
@@ -12932,13 +12932,13 @@
       <c r="C333" s="2">
         <v>45535</v>
       </c>
-      <c r="D333">
+      <c r="D333" t="b">
         <v>0</v>
       </c>
       <c r="E333">
         <v>4708314035.619811</v>
       </c>
-      <c r="F333">
+      <c r="F333" t="b">
         <v>1</v>
       </c>
       <c r="G333">
@@ -12970,13 +12970,13 @@
       <c r="C334" s="2">
         <v>45565</v>
       </c>
-      <c r="D334">
+      <c r="D334" t="b">
         <v>0</v>
       </c>
       <c r="E334">
         <v>4690730094.534071</v>
       </c>
-      <c r="F334">
+      <c r="F334" t="b">
         <v>0</v>
       </c>
       <c r="G334">
@@ -13008,13 +13008,13 @@
       <c r="C335" s="2">
         <v>45596</v>
       </c>
-      <c r="D335">
+      <c r="D335" t="b">
         <v>0</v>
       </c>
       <c r="E335">
         <v>5037308107.901071</v>
       </c>
-      <c r="F335">
+      <c r="F335" t="b">
         <v>0</v>
       </c>
       <c r="G335">
@@ -13046,13 +13046,13 @@
       <c r="C336" s="2">
         <v>45626</v>
       </c>
-      <c r="D336">
+      <c r="D336" t="b">
         <v>0</v>
       </c>
       <c r="E336">
         <v>4567153699.006777</v>
       </c>
-      <c r="F336">
+      <c r="F336" t="b">
         <v>1</v>
       </c>
       <c r="G336">
@@ -13084,13 +13084,13 @@
       <c r="C337" s="2">
         <v>45657</v>
       </c>
-      <c r="D337">
+      <c r="D337" t="b">
         <v>1</v>
       </c>
       <c r="E337">
         <v>4567153699.006777</v>
       </c>
-      <c r="F337">
+      <c r="F337" t="b">
         <v>0</v>
       </c>
       <c r="G337">
@@ -13122,13 +13122,13 @@
       <c r="C338" s="2">
         <v>44957</v>
       </c>
-      <c r="D338">
+      <c r="D338" t="b">
         <v>0</v>
       </c>
       <c r="E338">
         <v>1814169358</v>
       </c>
-      <c r="F338">
+      <c r="F338" t="b">
         <v>0</v>
       </c>
       <c r="G338">
@@ -13151,13 +13151,13 @@
       <c r="C339" s="2">
         <v>44985</v>
       </c>
-      <c r="D339">
+      <c r="D339" t="b">
         <v>0</v>
       </c>
       <c r="E339">
         <v>2030187946.522738</v>
       </c>
-      <c r="F339">
+      <c r="F339" t="b">
         <v>0</v>
       </c>
       <c r="G339">
@@ -13189,13 +13189,13 @@
       <c r="C340" s="2">
         <v>45016</v>
       </c>
-      <c r="D340">
+      <c r="D340" t="b">
         <v>0</v>
       </c>
       <c r="E340">
         <v>2125527893.027378</v>
       </c>
-      <c r="F340">
+      <c r="F340" t="b">
         <v>0</v>
       </c>
       <c r="G340">
@@ -13227,13 +13227,13 @@
       <c r="C341" s="2">
         <v>45046</v>
       </c>
-      <c r="D341">
+      <c r="D341" t="b">
         <v>0</v>
       </c>
       <c r="E341">
         <v>2315157359.990603</v>
       </c>
-      <c r="F341">
+      <c r="F341" t="b">
         <v>1</v>
       </c>
       <c r="G341">
@@ -13265,13 +13265,13 @@
       <c r="C342" s="2">
         <v>45077</v>
       </c>
-      <c r="D342">
+      <c r="D342" t="b">
         <v>0</v>
       </c>
       <c r="E342">
         <v>2597386315.436173</v>
       </c>
-      <c r="F342">
+      <c r="F342" t="b">
         <v>0</v>
       </c>
       <c r="G342">
@@ -13303,13 +13303,13 @@
       <c r="C343" s="2">
         <v>45107</v>
       </c>
-      <c r="D343">
+      <c r="D343" t="b">
         <v>0</v>
       </c>
       <c r="E343">
         <v>2814742692.418497</v>
       </c>
-      <c r="F343">
+      <c r="F343" t="b">
         <v>0</v>
       </c>
       <c r="G343">
@@ -13341,13 +13341,13 @@
       <c r="C344" s="2">
         <v>45138</v>
       </c>
-      <c r="D344">
+      <c r="D344" t="b">
         <v>0</v>
       </c>
       <c r="E344">
         <v>2547349860.424845</v>
       </c>
-      <c r="F344">
+      <c r="F344" t="b">
         <v>0</v>
       </c>
       <c r="G344">
@@ -13379,13 +13379,13 @@
       <c r="C345" s="2">
         <v>45169</v>
       </c>
-      <c r="D345">
+      <c r="D345" t="b">
         <v>0</v>
       </c>
       <c r="E345">
         <v>2441461747.026764</v>
       </c>
-      <c r="F345">
+      <c r="F345" t="b">
         <v>0</v>
       </c>
       <c r="G345">
@@ -13417,13 +13417,13 @@
       <c r="C346" s="2">
         <v>45199</v>
       </c>
-      <c r="D346">
+      <c r="D346" t="b">
         <v>0</v>
       </c>
       <c r="E346">
         <v>3070027088.895635</v>
       </c>
-      <c r="F346">
+      <c r="F346" t="b">
         <v>1</v>
       </c>
       <c r="G346">
@@ -13455,13 +13455,13 @@
       <c r="C347" s="2">
         <v>45230</v>
       </c>
-      <c r="D347">
+      <c r="D347" t="b">
         <v>0</v>
       </c>
       <c r="E347">
         <v>2740125310.838498</v>
       </c>
-      <c r="F347">
+      <c r="F347" t="b">
         <v>0</v>
       </c>
       <c r="G347">
@@ -13493,13 +13493,13 @@
       <c r="C348" s="2">
         <v>45260</v>
       </c>
-      <c r="D348">
+      <c r="D348" t="b">
         <v>0</v>
       </c>
       <c r="E348">
         <v>3067484343.832685</v>
       </c>
-      <c r="F348">
+      <c r="F348" t="b">
         <v>0</v>
       </c>
       <c r="G348">
@@ -13531,13 +13531,13 @@
       <c r="C349" s="2">
         <v>45291</v>
       </c>
-      <c r="D349">
+      <c r="D349" t="b">
         <v>0</v>
       </c>
       <c r="E349">
         <v>3413495568.705953</v>
       </c>
-      <c r="F349">
+      <c r="F349" t="b">
         <v>1</v>
       </c>
       <c r="G349">
@@ -13569,13 +13569,13 @@
       <c r="C350" s="2">
         <v>45322</v>
       </c>
-      <c r="D350">
+      <c r="D350" t="b">
         <v>0</v>
       </c>
       <c r="E350">
         <v>3606580964.298625</v>
       </c>
-      <c r="F350">
+      <c r="F350" t="b">
         <v>1</v>
       </c>
       <c r="G350">
@@ -13607,13 +13607,13 @@
       <c r="C351" s="2">
         <v>45351</v>
       </c>
-      <c r="D351">
+      <c r="D351" t="b">
         <v>1</v>
       </c>
       <c r="E351">
         <v>3017698391.483209</v>
       </c>
-      <c r="F351">
+      <c r="F351" t="b">
         <v>0</v>
       </c>
       <c r="G351">
@@ -13645,13 +13645,13 @@
       <c r="C352" s="2">
         <v>45382</v>
       </c>
-      <c r="D352">
+      <c r="D352" t="b">
         <v>0</v>
       </c>
       <c r="E352">
         <v>2879993777.557493</v>
       </c>
-      <c r="F352">
+      <c r="F352" t="b">
         <v>1</v>
       </c>
       <c r="G352">
@@ -13683,13 +13683,13 @@
       <c r="C353" s="2">
         <v>45412</v>
       </c>
-      <c r="D353">
+      <c r="D353" t="b">
         <v>0</v>
       </c>
       <c r="E353">
         <v>3419010789.451441</v>
       </c>
-      <c r="F353">
+      <c r="F353" t="b">
         <v>0</v>
       </c>
       <c r="G353">
@@ -13721,13 +13721,13 @@
       <c r="C354" s="2">
         <v>45443</v>
       </c>
-      <c r="D354">
+      <c r="D354" t="b">
         <v>0</v>
       </c>
       <c r="E354">
         <v>3990127193.157187</v>
       </c>
-      <c r="F354">
+      <c r="F354" t="b">
         <v>0</v>
       </c>
       <c r="G354">
@@ -13759,13 +13759,13 @@
       <c r="C355" s="2">
         <v>45473</v>
       </c>
-      <c r="D355">
+      <c r="D355" t="b">
         <v>0</v>
       </c>
       <c r="E355">
         <v>4371912671.066844</v>
       </c>
-      <c r="F355">
+      <c r="F355" t="b">
         <v>1</v>
       </c>
       <c r="G355">
@@ -13797,13 +13797,13 @@
       <c r="C356" s="2">
         <v>45504</v>
       </c>
-      <c r="D356">
+      <c r="D356" t="b">
         <v>0</v>
       </c>
       <c r="E356">
         <v>4537579215.809597</v>
       </c>
-      <c r="F356">
+      <c r="F356" t="b">
         <v>0</v>
       </c>
       <c r="G356">
@@ -13835,13 +13835,13 @@
       <c r="C357" s="2">
         <v>45535</v>
       </c>
-      <c r="D357">
+      <c r="D357" t="b">
         <v>0</v>
       </c>
       <c r="E357">
         <v>5504089154.823198</v>
       </c>
-      <c r="F357">
+      <c r="F357" t="b">
         <v>1</v>
       </c>
       <c r="G357">
@@ -13873,13 +13873,13 @@
       <c r="C358" s="2">
         <v>45565</v>
       </c>
-      <c r="D358">
+      <c r="D358" t="b">
         <v>0</v>
       </c>
       <c r="E358">
         <v>5431950994.836432</v>
       </c>
-      <c r="F358">
+      <c r="F358" t="b">
         <v>0</v>
       </c>
       <c r="G358">
@@ -13911,13 +13911,13 @@
       <c r="C359" s="2">
         <v>45596</v>
       </c>
-      <c r="D359">
+      <c r="D359" t="b">
         <v>0</v>
       </c>
       <c r="E359">
         <v>5815260292.48718</v>
       </c>
-      <c r="F359">
+      <c r="F359" t="b">
         <v>0</v>
       </c>
       <c r="G359">
@@ -13949,13 +13949,13 @@
       <c r="C360" s="2">
         <v>45626</v>
       </c>
-      <c r="D360">
+      <c r="D360" t="b">
         <v>0</v>
       </c>
       <c r="E360">
         <v>5336973286.108576</v>
       </c>
-      <c r="F360">
+      <c r="F360" t="b">
         <v>1</v>
       </c>
       <c r="G360">
@@ -13987,13 +13987,13 @@
       <c r="C361" s="2">
         <v>45657</v>
       </c>
-      <c r="D361">
+      <c r="D361" t="b">
         <v>1</v>
       </c>
       <c r="E361">
         <v>5336973286.108576</v>
       </c>
-      <c r="F361">
+      <c r="F361" t="b">
         <v>0</v>
       </c>
       <c r="G361">
@@ -14025,13 +14025,13 @@
       <c r="C362" s="2">
         <v>44957</v>
       </c>
-      <c r="D362">
+      <c r="D362" t="b">
         <v>0</v>
       </c>
       <c r="E362">
         <v>1203620766</v>
       </c>
-      <c r="F362">
+      <c r="F362" t="b">
         <v>0</v>
       </c>
       <c r="G362">
@@ -14054,13 +14054,13 @@
       <c r="C363" s="2">
         <v>44985</v>
       </c>
-      <c r="D363">
+      <c r="D363" t="b">
         <v>0</v>
       </c>
       <c r="E363">
         <v>1402301745.951453</v>
       </c>
-      <c r="F363">
+      <c r="F363" t="b">
         <v>0</v>
       </c>
       <c r="G363">
@@ -14092,13 +14092,13 @@
       <c r="C364" s="2">
         <v>45016</v>
       </c>
-      <c r="D364">
+      <c r="D364" t="b">
         <v>0</v>
       </c>
       <c r="E364">
         <v>1375918838.670769</v>
       </c>
-      <c r="F364">
+      <c r="F364" t="b">
         <v>0</v>
       </c>
       <c r="G364">
@@ -14130,32 +14130,32 @@
       <c r="C365" s="2">
         <v>45046</v>
       </c>
-      <c r="D365">
+      <c r="D365" t="b">
         <v>0</v>
       </c>
       <c r="E365">
-        <v>439490886.5303177</v>
-      </c>
-      <c r="F365">
+        <v>1318472659.590953</v>
+      </c>
+      <c r="F365" t="b">
         <v>1</v>
       </c>
       <c r="G365">
         <v>24.45301574129639</v>
       </c>
       <c r="H365">
-        <v>10746877566.48216</v>
+        <v>32240632699.4465</v>
       </c>
       <c r="I365">
-        <v>170585.3581981296</v>
+        <v>511756.0745943888</v>
       </c>
       <c r="J365">
-        <v>-936427952.1404512</v>
+        <v>-57446179.07981586</v>
       </c>
       <c r="K365">
-        <v>-22898487454.2804</v>
+        <v>-1404732321.316069</v>
       </c>
       <c r="L365">
-        <v>-4936934834.030251</v>
+        <v>-4936934834.030245</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -14168,32 +14168,32 @@
       <c r="C366" s="2">
         <v>45077</v>
       </c>
-      <c r="D366">
+      <c r="D366" t="b">
         <v>0</v>
       </c>
       <c r="E366">
-        <v>503904215.6244513</v>
-      </c>
-      <c r="F366">
+        <v>1511712646.873354</v>
+      </c>
+      <c r="F366" t="b">
         <v>0</v>
       </c>
       <c r="G366">
         <v>30.21641044652872</v>
       </c>
       <c r="H366">
-        <v>15226176605.04453</v>
+        <v>45678529815.13359</v>
       </c>
       <c r="I366">
-        <v>241685.3429372148</v>
+        <v>725056.0288116443</v>
       </c>
       <c r="J366">
-        <v>64413329.09413362</v>
+        <v>193239987.2824008</v>
       </c>
       <c r="K366">
-        <v>1946339590.135671</v>
+        <v>5839018770.407014</v>
       </c>
       <c r="L366">
-        <v>2532959448.426697</v>
+        <v>7598878345.280082</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -14206,32 +14206,32 @@
       <c r="C367" s="2">
         <v>45107</v>
       </c>
-      <c r="D367">
+      <c r="D367" t="b">
         <v>0</v>
       </c>
       <c r="E367">
-        <v>413293188.108472</v>
-      </c>
-      <c r="F367">
+        <v>1239879564.325416</v>
+      </c>
+      <c r="F367" t="b">
         <v>0</v>
       </c>
       <c r="G367">
         <v>32.93008848638497</v>
       </c>
       <c r="H367">
-        <v>13609781255.23213</v>
+        <v>40829343765.6964</v>
       </c>
       <c r="I367">
-        <v>216028.2738925735</v>
+        <v>648084.8216777205</v>
       </c>
       <c r="J367">
-        <v>-90611027.51597929</v>
+        <v>-271833082.5479379</v>
       </c>
       <c r="K367">
-        <v>-2983829153.943461</v>
+        <v>-8951487461.830383</v>
       </c>
       <c r="L367">
-        <v>1367433804.13106</v>
+        <v>4102301412.393188</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -14244,32 +14244,32 @@
       <c r="C368" s="2">
         <v>45138</v>
       </c>
-      <c r="D368">
+      <c r="D368" t="b">
         <v>0</v>
       </c>
       <c r="E368">
-        <v>375163923.1754953</v>
-      </c>
-      <c r="F368">
+        <v>1125491769.526486</v>
+      </c>
+      <c r="F368" t="b">
         <v>0</v>
       </c>
       <c r="G368">
         <v>35.00765366760461</v>
       </c>
       <c r="H368">
-        <v>13133608691.10756</v>
+        <v>39400826073.32269</v>
       </c>
       <c r="I368">
-        <v>208469.9792239295</v>
+        <v>625409.9376717886</v>
       </c>
       <c r="J368">
-        <v>-38129264.93297672</v>
+        <v>-114387794.7989302</v>
       </c>
       <c r="K368">
-        <v>-1334816101.37399</v>
+        <v>-4004448304.121971</v>
       </c>
       <c r="L368">
-        <v>858643537.2494214</v>
+        <v>2575930611.74826</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -14282,32 +14282,32 @@
       <c r="C369" s="2">
         <v>45169</v>
       </c>
-      <c r="D369">
+      <c r="D369" t="b">
         <v>0</v>
       </c>
       <c r="E369">
-        <v>399919936.963119</v>
-      </c>
-      <c r="F369">
+        <v>1199759810.889357</v>
+      </c>
+      <c r="F369" t="b">
         <v>0</v>
       </c>
       <c r="G369">
         <v>26.83151320771734</v>
       </c>
       <c r="H369">
-        <v>10730457070.65541</v>
+        <v>32191371211.96624</v>
       </c>
       <c r="I369">
-        <v>170324.7154072288</v>
+        <v>510974.1462216864</v>
       </c>
       <c r="J369">
-        <v>24756013.7876237</v>
+        <v>74268041.36287117</v>
       </c>
       <c r="K369">
-        <v>664241310.9130579</v>
+        <v>1992723932.739176</v>
       </c>
       <c r="L369">
-        <v>-3067392931.365206</v>
+        <v>-9202178794.095617</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -14320,32 +14320,32 @@
       <c r="C370" s="2">
         <v>45199</v>
       </c>
-      <c r="D370">
+      <c r="D370" t="b">
         <v>0</v>
       </c>
       <c r="E370">
-        <v>422369371.1386893</v>
-      </c>
-      <c r="F370">
+        <v>1267108113.416068</v>
+      </c>
+      <c r="F370" t="b">
         <v>1</v>
       </c>
       <c r="G370">
         <v>29.53588197762351</v>
       </c>
       <c r="H370">
-        <v>12475051896.91539</v>
+        <v>37425155690.74617</v>
       </c>
       <c r="I370">
-        <v>198016.6967764348</v>
+        <v>594050.0903293042</v>
       </c>
       <c r="J370">
-        <v>22449434.17557031</v>
+        <v>67348302.52671099</v>
       </c>
       <c r="K370">
-        <v>663063838.2740724</v>
+        <v>1989191514.822219</v>
       </c>
       <c r="L370">
-        <v>1081530987.985903</v>
+        <v>3244592963.957707</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -14358,32 +14358,32 @@
       <c r="C371" s="2">
         <v>45230</v>
       </c>
-      <c r="D371">
+      <c r="D371" t="b">
         <v>0</v>
       </c>
       <c r="E371">
-        <v>506156724.8012273</v>
-      </c>
-      <c r="F371">
+        <v>1518470174.403682</v>
+      </c>
+      <c r="F371" t="b">
         <v>0</v>
       </c>
       <c r="G371">
         <v>26.75727530339264</v>
       </c>
       <c r="H371">
-        <v>13543374832.16998</v>
+        <v>40630124496.50996</v>
       </c>
       <c r="I371">
-        <v>214974.2036852379</v>
+        <v>644922.6110557136</v>
       </c>
       <c r="J371">
-        <v>83787353.66253799</v>
+        <v>251362060.9876139</v>
       </c>
       <c r="K371">
-        <v>2241921288.891253</v>
+        <v>6725763866.673757</v>
       </c>
       <c r="L371">
-        <v>-1173598353.636658</v>
+        <v>-3520795060.90997</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -14396,32 +14396,32 @@
       <c r="C372" s="2">
         <v>45260</v>
       </c>
-      <c r="D372">
+      <c r="D372" t="b">
         <v>0</v>
       </c>
       <c r="E372">
-        <v>486190133.015781</v>
-      </c>
-      <c r="F372">
+        <v>1458570399.047343</v>
+      </c>
+      <c r="F372" t="b">
         <v>0</v>
       </c>
       <c r="G372">
         <v>26.60127477418531</v>
       </c>
       <c r="H372">
-        <v>12933277320.85049</v>
+        <v>38799831962.55148</v>
       </c>
       <c r="I372">
-        <v>205290.1162039761</v>
+        <v>615870.3486119283</v>
       </c>
       <c r="J372">
-        <v>-19966591.78544635</v>
+        <v>-59899775.35633898</v>
       </c>
       <c r="K372">
-        <v>-531136794.3886495</v>
+        <v>-1593410383.165947</v>
       </c>
       <c r="L372">
-        <v>-78960716.93084091</v>
+        <v>-236882150.7925262</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -14434,32 +14434,32 @@
       <c r="C373" s="2">
         <v>45291</v>
       </c>
-      <c r="D373">
+      <c r="D373" t="b">
         <v>0</v>
       </c>
       <c r="E373">
-        <v>475217394.80933</v>
-      </c>
-      <c r="F373">
+        <v>1425652184.42799</v>
+      </c>
+      <c r="F373" t="b">
         <v>1</v>
       </c>
       <c r="G373">
         <v>39.12556347492684</v>
       </c>
       <c r="H373">
-        <v>18593148345.00181</v>
+        <v>55779445035.00543</v>
       </c>
       <c r="I373">
-        <v>295129.3388095525</v>
+        <v>885388.0164286576</v>
       </c>
       <c r="J373">
-        <v>-10972738.206451</v>
+        <v>-32918214.61935306</v>
       </c>
       <c r="K373">
-        <v>-429314565.1902535</v>
+        <v>-1287943695.570763</v>
       </c>
       <c r="L373">
-        <v>6089185589.341571</v>
+        <v>18267556768.02471</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -14472,32 +14472,32 @@
       <c r="C374" s="2">
         <v>45322</v>
       </c>
-      <c r="D374">
+      <c r="D374" t="b">
         <v>0</v>
       </c>
       <c r="E374">
-        <v>443882601.80378</v>
-      </c>
-      <c r="F374">
+        <v>1331647805.41134</v>
+      </c>
+      <c r="F374" t="b">
         <v>0</v>
       </c>
       <c r="G374">
         <v>35.16570486701028</v>
       </c>
       <c r="H374">
-        <v>15609444570.63237</v>
+        <v>46828333711.89711</v>
       </c>
       <c r="I374">
-        <v>247768.9614386091</v>
+        <v>743306.8843158272</v>
       </c>
       <c r="J374">
-        <v>-31334793.00554997</v>
+        <v>-94004379.01664996</v>
       </c>
       <c r="K374">
-        <v>-1101910082.902028</v>
+        <v>-3305730248.706086</v>
       </c>
       <c r="L374">
-        <v>-1881793691.467412</v>
+        <v>-5645381074.402236</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -14510,32 +14510,32 @@
       <c r="C375" s="2">
         <v>45351</v>
       </c>
-      <c r="D375">
+      <c r="D375" t="b">
         <v>1</v>
       </c>
       <c r="E375">
-        <v>521678755.1409943</v>
-      </c>
-      <c r="F375">
+        <v>1565036265.422983</v>
+      </c>
+      <c r="F375" t="b">
         <v>0</v>
       </c>
       <c r="G375">
         <v>30.76900549638855</v>
       </c>
       <c r="H375">
-        <v>16051536484.28239</v>
+        <v>48154609452.84718</v>
       </c>
       <c r="I375">
-        <v>254786.2934013078</v>
+        <v>764358.8802039234</v>
       </c>
       <c r="J375">
-        <v>77796153.33721429</v>
+        <v>233388460.0116429</v>
       </c>
       <c r="K375">
-        <v>2393710269.630633</v>
+        <v>7181130808.891901</v>
       </c>
       <c r="L375">
-        <v>-1951618355.980614</v>
+        <v>-5854855067.941835</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -14548,13 +14548,13 @@
       <c r="C376" s="2">
         <v>45382</v>
       </c>
-      <c r="D376">
+      <c r="D376" t="b">
         <v>0</v>
       </c>
       <c r="E376">
         <v>591241160.1500204</v>
       </c>
-      <c r="F376">
+      <c r="F376" t="b">
         <v>1</v>
       </c>
       <c r="G376">
@@ -14567,13 +14567,13 @@
         <v>276004.3655120876</v>
       </c>
       <c r="J376">
-        <v>69562405.00902605</v>
+        <v>-973795105.2729626</v>
       </c>
       <c r="K376">
-        <v>2045815331.171777</v>
+        <v>-28639104061.00771</v>
       </c>
       <c r="L376">
-        <v>-709076788.1926467</v>
+        <v>-2127230364.577946</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -14586,13 +14586,13 @@
       <c r="C377" s="2">
         <v>45412</v>
       </c>
-      <c r="D377">
+      <c r="D377" t="b">
         <v>0</v>
       </c>
       <c r="E377">
         <v>677977263.2233633</v>
       </c>
-      <c r="F377">
+      <c r="F377" t="b">
         <v>0</v>
       </c>
       <c r="G377">
@@ -14624,13 +14624,13 @@
       <c r="C378" s="2">
         <v>45443</v>
       </c>
-      <c r="D378">
+      <c r="D378" t="b">
         <v>0</v>
       </c>
       <c r="E378">
         <v>793795533.5914273</v>
       </c>
-      <c r="F378">
+      <c r="F378" t="b">
         <v>0</v>
       </c>
       <c r="G378">
@@ -14662,13 +14662,13 @@
       <c r="C379" s="2">
         <v>45473</v>
       </c>
-      <c r="D379">
+      <c r="D379" t="b">
         <v>0</v>
       </c>
       <c r="E379">
         <v>839414959.7458353</v>
       </c>
-      <c r="F379">
+      <c r="F379" t="b">
         <v>1</v>
       </c>
       <c r="G379">
@@ -14700,13 +14700,13 @@
       <c r="C380" s="2">
         <v>45504</v>
       </c>
-      <c r="D380">
+      <c r="D380" t="b">
         <v>0</v>
       </c>
       <c r="E380">
         <v>869094958.1630133</v>
       </c>
-      <c r="F380">
+      <c r="F380" t="b">
         <v>0</v>
       </c>
       <c r="G380">
@@ -14738,13 +14738,13 @@
       <c r="C381" s="2">
         <v>45535</v>
       </c>
-      <c r="D381">
+      <c r="D381" t="b">
         <v>0</v>
       </c>
       <c r="E381">
         <v>868327931.5415627</v>
       </c>
-      <c r="F381">
+      <c r="F381" t="b">
         <v>1</v>
       </c>
       <c r="G381">
@@ -14776,13 +14776,13 @@
       <c r="C382" s="2">
         <v>45565</v>
       </c>
-      <c r="D382">
+      <c r="D382" t="b">
         <v>0</v>
       </c>
       <c r="E382">
         <v>934984590.5806264</v>
       </c>
-      <c r="F382">
+      <c r="F382" t="b">
         <v>0</v>
       </c>
       <c r="G382">
@@ -14814,13 +14814,13 @@
       <c r="C383" s="2">
         <v>45596</v>
       </c>
-      <c r="D383">
+      <c r="D383" t="b">
         <v>0</v>
       </c>
       <c r="E383">
         <v>968909121.7722102</v>
       </c>
-      <c r="F383">
+      <c r="F383" t="b">
         <v>0</v>
       </c>
       <c r="G383">
@@ -14852,13 +14852,13 @@
       <c r="C384" s="2">
         <v>45626</v>
       </c>
-      <c r="D384">
+      <c r="D384" t="b">
         <v>0</v>
       </c>
       <c r="E384">
         <v>1003276014.377158</v>
       </c>
-      <c r="F384">
+      <c r="F384" t="b">
         <v>1</v>
       </c>
       <c r="G384">
@@ -14890,13 +14890,13 @@
       <c r="C385" s="2">
         <v>45657</v>
       </c>
-      <c r="D385">
+      <c r="D385" t="b">
         <v>1</v>
       </c>
       <c r="E385">
         <v>1003276014.377158</v>
       </c>
-      <c r="F385">
+      <c r="F385" t="b">
         <v>0</v>
       </c>
       <c r="G385">
@@ -14928,13 +14928,13 @@
       <c r="C386" s="2">
         <v>44957</v>
       </c>
-      <c r="D386">
+      <c r="D386" t="b">
         <v>0</v>
       </c>
       <c r="E386">
         <v>107017638</v>
       </c>
-      <c r="F386">
+      <c r="F386" t="b">
         <v>0</v>
       </c>
       <c r="G386">
@@ -14957,13 +14957,13 @@
       <c r="C387" s="2">
         <v>44985</v>
       </c>
-      <c r="D387">
+      <c r="D387" t="b">
         <v>0</v>
       </c>
       <c r="E387">
         <v>96421857.68787539</v>
       </c>
-      <c r="F387">
+      <c r="F387" t="b">
         <v>0</v>
       </c>
       <c r="G387">
@@ -14995,13 +14995,13 @@
       <c r="C388" s="2">
         <v>45016</v>
       </c>
-      <c r="D388">
+      <c r="D388" t="b">
         <v>0</v>
       </c>
       <c r="E388">
         <v>83573467.28018486</v>
       </c>
-      <c r="F388">
+      <c r="F388" t="b">
         <v>1</v>
       </c>
       <c r="G388">
@@ -15033,13 +15033,13 @@
       <c r="C389" s="2">
         <v>45046</v>
       </c>
-      <c r="D389">
+      <c r="D389" t="b">
         <v>0</v>
       </c>
       <c r="E389">
         <v>72757007.86204049</v>
       </c>
-      <c r="F389">
+      <c r="F389" t="b">
         <v>1</v>
       </c>
       <c r="G389">
@@ -15071,13 +15071,13 @@
       <c r="C390" s="2">
         <v>45077</v>
       </c>
-      <c r="D390">
+      <c r="D390" t="b">
         <v>0</v>
       </c>
       <c r="E390">
         <v>68523721.07769531</v>
       </c>
-      <c r="F390">
+      <c r="F390" t="b">
         <v>0</v>
       </c>
       <c r="G390">
@@ -15109,13 +15109,13 @@
       <c r="C391" s="2">
         <v>45107</v>
       </c>
-      <c r="D391">
+      <c r="D391" t="b">
         <v>0</v>
       </c>
       <c r="E391">
         <v>58912879.24832936</v>
       </c>
-      <c r="F391">
+      <c r="F391" t="b">
         <v>0</v>
       </c>
       <c r="G391">
@@ -15147,13 +15147,13 @@
       <c r="C392" s="2">
         <v>45138</v>
       </c>
-      <c r="D392">
+      <c r="D392" t="b">
         <v>0</v>
       </c>
       <c r="E392">
         <v>50367503.72597332</v>
       </c>
-      <c r="F392">
+      <c r="F392" t="b">
         <v>0</v>
       </c>
       <c r="G392">
@@ -15185,13 +15185,13 @@
       <c r="C393" s="2">
         <v>45169</v>
       </c>
-      <c r="D393">
+      <c r="D393" t="b">
         <v>0</v>
       </c>
       <c r="E393">
         <v>48569698.95390984</v>
       </c>
-      <c r="F393">
+      <c r="F393" t="b">
         <v>0</v>
       </c>
       <c r="G393">
@@ -15223,13 +15223,13 @@
       <c r="C394" s="2">
         <v>45199</v>
       </c>
-      <c r="D394">
+      <c r="D394" t="b">
         <v>0</v>
       </c>
       <c r="E394">
         <v>44094658.59466106</v>
       </c>
-      <c r="F394">
+      <c r="F394" t="b">
         <v>1</v>
       </c>
       <c r="G394">
@@ -15261,13 +15261,13 @@
       <c r="C395" s="2">
         <v>45230</v>
       </c>
-      <c r="D395">
+      <c r="D395" t="b">
         <v>0</v>
       </c>
       <c r="E395">
         <v>38365001.12076654</v>
       </c>
-      <c r="F395">
+      <c r="F395" t="b">
         <v>0</v>
       </c>
       <c r="G395">
@@ -15299,13 +15299,13 @@
       <c r="C396" s="2">
         <v>45260</v>
       </c>
-      <c r="D396">
+      <c r="D396" t="b">
         <v>0</v>
       </c>
       <c r="E396">
         <v>34167027.63077531</v>
       </c>
-      <c r="F396">
+      <c r="F396" t="b">
         <v>0</v>
       </c>
       <c r="G396">
@@ -15337,13 +15337,13 @@
       <c r="C397" s="2">
         <v>45291</v>
       </c>
-      <c r="D397">
+      <c r="D397" t="b">
         <v>0</v>
       </c>
       <c r="E397">
         <v>32552083.4762482</v>
       </c>
-      <c r="F397">
+      <c r="F397" t="b">
         <v>1</v>
       </c>
       <c r="G397">
@@ -15375,13 +15375,13 @@
       <c r="C398" s="2">
         <v>45322</v>
       </c>
-      <c r="D398">
+      <c r="D398" t="b">
         <v>0</v>
       </c>
       <c r="E398">
         <v>29104357.24830343</v>
       </c>
-      <c r="F398">
+      <c r="F398" t="b">
         <v>0</v>
       </c>
       <c r="G398">
@@ -15413,13 +15413,13 @@
       <c r="C399" s="2">
         <v>45351</v>
       </c>
-      <c r="D399">
+      <c r="D399" t="b">
         <v>0</v>
       </c>
       <c r="E399">
         <v>27041538.77983189</v>
       </c>
-      <c r="F399">
+      <c r="F399" t="b">
         <v>0</v>
       </c>
       <c r="G399">
@@ -15451,13 +15451,13 @@
       <c r="C400" s="2">
         <v>45382</v>
       </c>
-      <c r="D400">
+      <c r="D400" t="b">
         <v>0</v>
       </c>
       <c r="E400">
         <v>23511840.49984476</v>
       </c>
-      <c r="F400">
+      <c r="F400" t="b">
         <v>1</v>
       </c>
       <c r="G400">
@@ -15489,13 +15489,13 @@
       <c r="C401" s="2">
         <v>45412</v>
       </c>
-      <c r="D401">
+      <c r="D401" t="b">
         <v>0</v>
       </c>
       <c r="E401">
         <v>22197410.63388449</v>
       </c>
-      <c r="F401">
+      <c r="F401" t="b">
         <v>0</v>
       </c>
       <c r="G401">
@@ -15527,13 +15527,13 @@
       <c r="C402" s="2">
         <v>45443</v>
       </c>
-      <c r="D402">
+      <c r="D402" t="b">
         <v>0</v>
       </c>
       <c r="E402">
         <v>19990376.02127798</v>
       </c>
-      <c r="F402">
+      <c r="F402" t="b">
         <v>0</v>
       </c>
       <c r="G402">
@@ -15565,13 +15565,13 @@
       <c r="C403" s="2">
         <v>45473</v>
       </c>
-      <c r="D403">
+      <c r="D403" t="b">
         <v>0</v>
       </c>
       <c r="E403">
         <v>18997153.17963845</v>
       </c>
-      <c r="F403">
+      <c r="F403" t="b">
         <v>1</v>
       </c>
       <c r="G403">
@@ -15603,13 +15603,13 @@
       <c r="C404" s="2">
         <v>45504</v>
       </c>
-      <c r="D404">
+      <c r="D404" t="b">
         <v>0</v>
       </c>
       <c r="E404">
         <v>18604732.42809513</v>
       </c>
-      <c r="F404">
+      <c r="F404" t="b">
         <v>0</v>
       </c>
       <c r="G404">
@@ -15641,13 +15641,13 @@
       <c r="C405" s="2">
         <v>45535</v>
       </c>
-      <c r="D405">
+      <c r="D405" t="b">
         <v>0</v>
       </c>
       <c r="E405">
         <v>19398219.98357913</v>
       </c>
-      <c r="F405">
+      <c r="F405" t="b">
         <v>1</v>
       </c>
       <c r="G405">
@@ -15679,13 +15679,13 @@
       <c r="C406" s="2">
         <v>45565</v>
       </c>
-      <c r="D406">
+      <c r="D406" t="b">
         <v>0</v>
       </c>
       <c r="E406">
         <v>15824002.90059486</v>
       </c>
-      <c r="F406">
+      <c r="F406" t="b">
         <v>0</v>
       </c>
       <c r="G406">
@@ -15717,13 +15717,13 @@
       <c r="C407" s="2">
         <v>45596</v>
       </c>
-      <c r="D407">
+      <c r="D407" t="b">
         <v>0</v>
       </c>
       <c r="E407">
         <v>14097904.7175231</v>
       </c>
-      <c r="F407">
+      <c r="F407" t="b">
         <v>0</v>
       </c>
       <c r="G407">
@@ -15755,13 +15755,13 @@
       <c r="C408" s="2">
         <v>45626</v>
       </c>
-      <c r="D408">
+      <c r="D408" t="b">
         <v>0</v>
       </c>
       <c r="E408">
         <v>12721770.9264937</v>
       </c>
-      <c r="F408">
+      <c r="F408" t="b">
         <v>1</v>
       </c>
       <c r="G408">
@@ -15793,13 +15793,13 @@
       <c r="C409" s="2">
         <v>45657</v>
       </c>
-      <c r="D409">
+      <c r="D409" t="b">
         <v>1</v>
       </c>
       <c r="E409">
         <v>12721770.9264937</v>
       </c>
-      <c r="F409">
+      <c r="F409" t="b">
         <v>0</v>
       </c>
       <c r="G409">
@@ -15831,13 +15831,13 @@
       <c r="C410" s="2">
         <v>44957</v>
       </c>
-      <c r="D410">
+      <c r="D410" t="b">
         <v>0</v>
       </c>
       <c r="E410">
         <v>176668563</v>
       </c>
-      <c r="F410">
+      <c r="F410" t="b">
         <v>0</v>
       </c>
       <c r="G410">
@@ -15860,13 +15860,13 @@
       <c r="C411" s="2">
         <v>44985</v>
       </c>
-      <c r="D411">
+      <c r="D411" t="b">
         <v>0</v>
       </c>
       <c r="E411">
         <v>173559160.7210532</v>
       </c>
-      <c r="F411">
+      <c r="F411" t="b">
         <v>1</v>
       </c>
       <c r="G411">
@@ -15898,13 +15898,13 @@
       <c r="C412" s="2">
         <v>45016</v>
       </c>
-      <c r="D412">
+      <c r="D412" t="b">
         <v>0</v>
       </c>
       <c r="E412">
         <v>154593741.4927296</v>
       </c>
-      <c r="F412">
+      <c r="F412" t="b">
         <v>0</v>
       </c>
       <c r="G412">
@@ -15936,13 +15936,13 @@
       <c r="C413" s="2">
         <v>45046</v>
       </c>
-      <c r="D413">
+      <c r="D413" t="b">
         <v>0</v>
       </c>
       <c r="E413">
         <v>143105014.9201421</v>
       </c>
-      <c r="F413">
+      <c r="F413" t="b">
         <v>1</v>
       </c>
       <c r="G413">
@@ -15974,13 +15974,13 @@
       <c r="C414" s="2">
         <v>45077</v>
       </c>
-      <c r="D414">
+      <c r="D414" t="b">
         <v>0</v>
       </c>
       <c r="E414">
         <v>122631043.9341733</v>
       </c>
-      <c r="F414">
+      <c r="F414" t="b">
         <v>0</v>
       </c>
       <c r="G414">
@@ -16012,13 +16012,13 @@
       <c r="C415" s="2">
         <v>45107</v>
       </c>
-      <c r="D415">
+      <c r="D415" t="b">
         <v>0</v>
       </c>
       <c r="E415">
         <v>117958103.953796</v>
       </c>
-      <c r="F415">
+      <c r="F415" t="b">
         <v>0</v>
       </c>
       <c r="G415">
@@ -16050,13 +16050,13 @@
       <c r="C416" s="2">
         <v>45138</v>
       </c>
-      <c r="D416">
+      <c r="D416" t="b">
         <v>0</v>
       </c>
       <c r="E416">
         <v>106503164.2124252</v>
       </c>
-      <c r="F416">
+      <c r="F416" t="b">
         <v>0</v>
       </c>
       <c r="G416">
@@ -16088,13 +16088,13 @@
       <c r="C417" s="2">
         <v>45169</v>
       </c>
-      <c r="D417">
+      <c r="D417" t="b">
         <v>0</v>
       </c>
       <c r="E417">
         <v>103218380.4636044</v>
       </c>
-      <c r="F417">
+      <c r="F417" t="b">
         <v>0</v>
       </c>
       <c r="G417">
@@ -16126,13 +16126,13 @@
       <c r="C418" s="2">
         <v>45199</v>
       </c>
-      <c r="D418">
+      <c r="D418" t="b">
         <v>0</v>
       </c>
       <c r="E418">
         <v>94546435.55402009</v>
       </c>
-      <c r="F418">
+      <c r="F418" t="b">
         <v>1</v>
       </c>
       <c r="G418">
@@ -16164,13 +16164,13 @@
       <c r="C419" s="2">
         <v>45230</v>
       </c>
-      <c r="D419">
+      <c r="D419" t="b">
         <v>0</v>
       </c>
       <c r="E419">
         <v>83325749.39297588</v>
       </c>
-      <c r="F419">
+      <c r="F419" t="b">
         <v>0</v>
       </c>
       <c r="G419">
@@ -16202,13 +16202,13 @@
       <c r="C420" s="2">
         <v>45260</v>
       </c>
-      <c r="D420">
+      <c r="D420" t="b">
         <v>0</v>
       </c>
       <c r="E420">
         <v>77668598.71218193</v>
       </c>
-      <c r="F420">
+      <c r="F420" t="b">
         <v>0</v>
       </c>
       <c r="G420">
@@ -16240,13 +16240,13 @@
       <c r="C421" s="2">
         <v>45291</v>
       </c>
-      <c r="D421">
+      <c r="D421" t="b">
         <v>0</v>
       </c>
       <c r="E421">
         <v>74404094.49986601</v>
       </c>
-      <c r="F421">
+      <c r="F421" t="b">
         <v>1</v>
       </c>
       <c r="G421">
@@ -16278,13 +16278,13 @@
       <c r="C422" s="2">
         <v>45322</v>
       </c>
-      <c r="D422">
+      <c r="D422" t="b">
         <v>0</v>
       </c>
       <c r="E422">
         <v>62261770.08183564</v>
       </c>
-      <c r="F422">
+      <c r="F422" t="b">
         <v>0</v>
       </c>
       <c r="G422">
@@ -16316,13 +16316,13 @@
       <c r="C423" s="2">
         <v>45351</v>
       </c>
-      <c r="D423">
+      <c r="D423" t="b">
         <v>0</v>
       </c>
       <c r="E423">
         <v>56083464.67849812</v>
       </c>
-      <c r="F423">
+      <c r="F423" t="b">
         <v>0</v>
       </c>
       <c r="G423">
@@ -16354,13 +16354,13 @@
       <c r="C424" s="2">
         <v>45382</v>
       </c>
-      <c r="D424">
+      <c r="D424" t="b">
         <v>0</v>
       </c>
       <c r="E424">
         <v>55854281.47731188</v>
       </c>
-      <c r="F424">
+      <c r="F424" t="b">
         <v>1</v>
       </c>
       <c r="G424">
@@ -16392,13 +16392,13 @@
       <c r="C425" s="2">
         <v>45412</v>
       </c>
-      <c r="D425">
+      <c r="D425" t="b">
         <v>0</v>
       </c>
       <c r="E425">
         <v>48020640.05140179</v>
       </c>
-      <c r="F425">
+      <c r="F425" t="b">
         <v>0</v>
       </c>
       <c r="G425">
@@ -16430,13 +16430,13 @@
       <c r="C426" s="2">
         <v>45443</v>
       </c>
-      <c r="D426">
+      <c r="D426" t="b">
         <v>0</v>
       </c>
       <c r="E426">
         <v>46149889.71283977</v>
       </c>
-      <c r="F426">
+      <c r="F426" t="b">
         <v>0</v>
       </c>
       <c r="G426">
@@ -16468,13 +16468,13 @@
       <c r="C427" s="2">
         <v>45473</v>
       </c>
-      <c r="D427">
+      <c r="D427" t="b">
         <v>1</v>
       </c>
       <c r="E427">
         <v>40576837.64074789</v>
       </c>
-      <c r="F427">
+      <c r="F427" t="b">
         <v>1</v>
       </c>
       <c r="G427">
@@ -16506,13 +16506,13 @@
       <c r="C428" s="2">
         <v>45504</v>
       </c>
-      <c r="D428">
+      <c r="D428" t="b">
         <v>0</v>
       </c>
       <c r="E428">
         <v>36561646.42363725</v>
       </c>
-      <c r="F428">
+      <c r="F428" t="b">
         <v>0</v>
       </c>
       <c r="G428">
@@ -16544,13 +16544,13 @@
       <c r="C429" s="2">
         <v>45535</v>
       </c>
-      <c r="D429">
+      <c r="D429" t="b">
         <v>0</v>
       </c>
       <c r="E429">
         <v>33508099.98132753</v>
       </c>
-      <c r="F429">
+      <c r="F429" t="b">
         <v>1</v>
       </c>
       <c r="G429">
@@ -16582,13 +16582,13 @@
       <c r="C430" s="2">
         <v>45565</v>
       </c>
-      <c r="D430">
+      <c r="D430" t="b">
         <v>0</v>
       </c>
       <c r="E430">
         <v>33350022.64802131</v>
       </c>
-      <c r="F430">
+      <c r="F430" t="b">
         <v>0</v>
       </c>
       <c r="G430">
@@ -16620,13 +16620,13 @@
       <c r="C431" s="2">
         <v>45596</v>
       </c>
-      <c r="D431">
+      <c r="D431" t="b">
         <v>0</v>
       </c>
       <c r="E431">
         <v>29641917.75761488</v>
       </c>
-      <c r="F431">
+      <c r="F431" t="b">
         <v>0</v>
       </c>
       <c r="G431">
@@ -16658,13 +16658,13 @@
       <c r="C432" s="2">
         <v>45626</v>
       </c>
-      <c r="D432">
+      <c r="D432" t="b">
         <v>0</v>
       </c>
       <c r="E432">
         <v>25628680.97646471</v>
       </c>
-      <c r="F432">
+      <c r="F432" t="b">
         <v>1</v>
       </c>
       <c r="G432">
@@ -16696,13 +16696,13 @@
       <c r="C433" s="2">
         <v>45657</v>
       </c>
-      <c r="D433">
+      <c r="D433" t="b">
         <v>1</v>
       </c>
       <c r="E433">
         <v>25628680.97646471</v>
       </c>
-      <c r="F433">
+      <c r="F433" t="b">
         <v>0</v>
       </c>
       <c r="G433">
@@ -16734,13 +16734,13 @@
       <c r="C434" s="2">
         <v>44957</v>
       </c>
-      <c r="D434">
+      <c r="D434" t="b">
         <v>0</v>
       </c>
       <c r="E434">
         <v>2196311</v>
       </c>
-      <c r="F434">
+      <c r="F434" t="b">
         <v>0</v>
       </c>
       <c r="G434">
@@ -16763,13 +16763,13 @@
       <c r="C435" s="2">
         <v>44985</v>
       </c>
-      <c r="D435">
+      <c r="D435" t="b">
         <v>0</v>
       </c>
       <c r="E435">
         <v>1924713.605047517</v>
       </c>
-      <c r="F435">
+      <c r="F435" t="b">
         <v>0</v>
       </c>
       <c r="G435">
@@ -16801,13 +16801,13 @@
       <c r="C436" s="2">
         <v>45016</v>
       </c>
-      <c r="D436">
+      <c r="D436" t="b">
         <v>0</v>
       </c>
       <c r="E436">
         <v>1691799.192479617</v>
       </c>
-      <c r="F436">
+      <c r="F436" t="b">
         <v>0</v>
       </c>
       <c r="G436">
@@ -16839,13 +16839,13 @@
       <c r="C437" s="2">
         <v>45046</v>
       </c>
-      <c r="D437">
+      <c r="D437" t="b">
         <v>0</v>
       </c>
       <c r="E437">
         <v>1652059.804438958</v>
       </c>
-      <c r="F437">
+      <c r="F437" t="b">
         <v>1</v>
       </c>
       <c r="G437">
@@ -16877,13 +16877,13 @@
       <c r="C438" s="2">
         <v>45077</v>
       </c>
-      <c r="D438">
+      <c r="D438" t="b">
         <v>0</v>
       </c>
       <c r="E438">
         <v>1505947.029790105</v>
       </c>
-      <c r="F438">
+      <c r="F438" t="b">
         <v>0</v>
       </c>
       <c r="G438">
@@ -16915,13 +16915,13 @@
       <c r="C439" s="2">
         <v>45107</v>
       </c>
-      <c r="D439">
+      <c r="D439" t="b">
         <v>0</v>
       </c>
       <c r="E439">
         <v>1385108.678870881</v>
       </c>
-      <c r="F439">
+      <c r="F439" t="b">
         <v>0</v>
       </c>
       <c r="G439">
@@ -16953,13 +16953,13 @@
       <c r="C440" s="2">
         <v>45138</v>
       </c>
-      <c r="D440">
+      <c r="D440" t="b">
         <v>0</v>
       </c>
       <c r="E440">
         <v>1439893.475140868</v>
       </c>
-      <c r="F440">
+      <c r="F440" t="b">
         <v>0</v>
       </c>
       <c r="G440">
@@ -16991,13 +16991,13 @@
       <c r="C441" s="2">
         <v>45169</v>
       </c>
-      <c r="D441">
+      <c r="D441" t="b">
         <v>0</v>
       </c>
       <c r="E441">
         <v>1359755.569111774</v>
       </c>
-      <c r="F441">
+      <c r="F441" t="b">
         <v>0</v>
       </c>
       <c r="G441">
@@ -17029,13 +17029,13 @@
       <c r="C442" s="2">
         <v>45199</v>
       </c>
-      <c r="D442">
+      <c r="D442" t="b">
         <v>0</v>
       </c>
       <c r="E442">
         <v>1064046.187227282</v>
       </c>
-      <c r="F442">
+      <c r="F442" t="b">
         <v>1</v>
       </c>
       <c r="G442">
@@ -17067,13 +17067,13 @@
       <c r="C443" s="2">
         <v>45230</v>
       </c>
-      <c r="D443">
+      <c r="D443" t="b">
         <v>0</v>
       </c>
       <c r="E443">
         <v>1046006.907659441</v>
       </c>
-      <c r="F443">
+      <c r="F443" t="b">
         <v>0</v>
       </c>
       <c r="G443">
@@ -17105,13 +17105,13 @@
       <c r="C444" s="2">
         <v>45260</v>
       </c>
-      <c r="D444">
+      <c r="D444" t="b">
         <v>0</v>
       </c>
       <c r="E444">
         <v>918783.4394439134</v>
       </c>
-      <c r="F444">
+      <c r="F444" t="b">
         <v>0</v>
       </c>
       <c r="G444">
@@ -17143,13 +17143,13 @@
       <c r="C445" s="2">
         <v>45291</v>
       </c>
-      <c r="D445">
+      <c r="D445" t="b">
         <v>0</v>
       </c>
       <c r="E445">
         <v>975987.4549532523</v>
       </c>
-      <c r="F445">
+      <c r="F445" t="b">
         <v>1</v>
       </c>
       <c r="G445">
@@ -17181,13 +17181,13 @@
       <c r="C446" s="2">
         <v>45322</v>
       </c>
-      <c r="D446">
+      <c r="D446" t="b">
         <v>0</v>
       </c>
       <c r="E446">
         <v>950248.0873053722</v>
       </c>
-      <c r="F446">
+      <c r="F446" t="b">
         <v>1</v>
       </c>
       <c r="G446">
@@ -17219,13 +17219,13 @@
       <c r="C447" s="2">
         <v>45351</v>
       </c>
-      <c r="D447">
+      <c r="D447" t="b">
         <v>0</v>
       </c>
       <c r="E447">
         <v>833094.5278102636</v>
       </c>
-      <c r="F447">
+      <c r="F447" t="b">
         <v>0</v>
       </c>
       <c r="G447">
@@ -17257,13 +17257,13 @@
       <c r="C448" s="2">
         <v>45382</v>
       </c>
-      <c r="D448">
+      <c r="D448" t="b">
         <v>0</v>
       </c>
       <c r="E448">
         <v>785305.2460897198</v>
       </c>
-      <c r="F448">
+      <c r="F448" t="b">
         <v>1</v>
       </c>
       <c r="G448">
@@ -17295,13 +17295,13 @@
       <c r="C449" s="2">
         <v>45412</v>
       </c>
-      <c r="D449">
+      <c r="D449" t="b">
         <v>0</v>
       </c>
       <c r="E449">
         <v>736279.5689781579</v>
       </c>
-      <c r="F449">
+      <c r="F449" t="b">
         <v>0</v>
       </c>
       <c r="G449">
@@ -17333,13 +17333,13 @@
       <c r="C450" s="2">
         <v>45443</v>
       </c>
-      <c r="D450">
+      <c r="D450" t="b">
         <v>0</v>
       </c>
       <c r="E450">
         <v>607537.7923467506</v>
       </c>
-      <c r="F450">
+      <c r="F450" t="b">
         <v>0</v>
       </c>
       <c r="G450">
@@ -17371,13 +17371,13 @@
       <c r="C451" s="2">
         <v>45473</v>
       </c>
-      <c r="D451">
+      <c r="D451" t="b">
         <v>0</v>
       </c>
       <c r="E451">
         <v>575201.1733570118</v>
       </c>
-      <c r="F451">
+      <c r="F451" t="b">
         <v>1</v>
       </c>
       <c r="G451">
@@ -17409,13 +17409,13 @@
       <c r="C452" s="2">
         <v>45504</v>
       </c>
-      <c r="D452">
+      <c r="D452" t="b">
         <v>0</v>
       </c>
       <c r="E452">
         <v>524578.9877587942</v>
       </c>
-      <c r="F452">
+      <c r="F452" t="b">
         <v>0</v>
       </c>
       <c r="G452">
@@ -17447,13 +17447,13 @@
       <c r="C453" s="2">
         <v>45535</v>
       </c>
-      <c r="D453">
+      <c r="D453" t="b">
         <v>1</v>
       </c>
       <c r="E453">
         <v>518366.2850707244</v>
       </c>
-      <c r="F453">
+      <c r="F453" t="b">
         <v>1</v>
       </c>
       <c r="G453">
@@ -17485,13 +17485,13 @@
       <c r="C454" s="2">
         <v>45565</v>
       </c>
-      <c r="D454">
+      <c r="D454" t="b">
         <v>1</v>
       </c>
       <c r="E454">
         <v>466222.9724372145</v>
       </c>
-      <c r="F454">
+      <c r="F454" t="b">
         <v>0</v>
       </c>
       <c r="G454">
@@ -17523,13 +17523,13 @@
       <c r="C455" s="2">
         <v>45596</v>
       </c>
-      <c r="D455">
+      <c r="D455" t="b">
         <v>0</v>
       </c>
       <c r="E455">
         <v>418185.9527242432</v>
       </c>
-      <c r="F455">
+      <c r="F455" t="b">
         <v>0</v>
       </c>
       <c r="G455">
@@ -17561,13 +17561,13 @@
       <c r="C456" s="2">
         <v>45626</v>
       </c>
-      <c r="D456">
+      <c r="D456" t="b">
         <v>1</v>
       </c>
       <c r="E456">
         <v>418185.9527242432</v>
       </c>
-      <c r="F456">
+      <c r="F456" t="b">
         <v>1</v>
       </c>
       <c r="G456">
@@ -17599,13 +17599,13 @@
       <c r="C457" s="2">
         <v>45657</v>
       </c>
-      <c r="D457">
+      <c r="D457" t="b">
         <v>1</v>
       </c>
       <c r="E457">
         <v>418185.9527242432</v>
       </c>
-      <c r="F457">
+      <c r="F457" t="b">
         <v>0</v>
       </c>
       <c r="G457">
@@ -17637,13 +17637,13 @@
       <c r="C458" s="2">
         <v>44957</v>
       </c>
-      <c r="D458">
+      <c r="D458" t="b">
         <v>0</v>
       </c>
       <c r="E458">
         <v>67075147</v>
       </c>
-      <c r="F458">
+      <c r="F458" t="b">
         <v>0</v>
       </c>
       <c r="G458">
@@ -17666,13 +17666,13 @@
       <c r="C459" s="2">
         <v>44985</v>
       </c>
-      <c r="D459">
+      <c r="D459" t="b">
         <v>0</v>
       </c>
       <c r="E459">
         <v>63805127.45113669</v>
       </c>
-      <c r="F459">
+      <c r="F459" t="b">
         <v>0</v>
       </c>
       <c r="G459">
@@ -17704,13 +17704,13 @@
       <c r="C460" s="2">
         <v>45016</v>
       </c>
-      <c r="D460">
+      <c r="D460" t="b">
         <v>0</v>
       </c>
       <c r="E460">
         <v>62084124.96444172</v>
       </c>
-      <c r="F460">
+      <c r="F460" t="b">
         <v>0</v>
       </c>
       <c r="G460">
@@ -17742,32 +17742,32 @@
       <c r="C461" s="2">
         <v>45046</v>
       </c>
-      <c r="D461">
+      <c r="D461" t="b">
         <v>0</v>
       </c>
       <c r="E461">
-        <v>20882058.85575848</v>
-      </c>
-      <c r="F461">
+        <v>62646176.56727545</v>
+      </c>
+      <c r="F461" t="b">
         <v>1</v>
       </c>
       <c r="G461">
         <v>24.45301574129639</v>
       </c>
       <c r="H461">
-        <v>510629313.9105399</v>
+        <v>1531887941.73162</v>
       </c>
       <c r="I461">
-        <v>8105.227204929205</v>
+        <v>24315.68161478761</v>
       </c>
       <c r="J461">
-        <v>-41202066.10868323</v>
+        <v>562051.602833733</v>
       </c>
       <c r="K461">
-        <v>-1007514771.129565</v>
+        <v>13743856.69151414</v>
       </c>
       <c r="L461">
-        <v>-222764069.0444677</v>
+        <v>-222764069.0444676</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -17780,32 +17780,32 @@
       <c r="C462" s="2">
         <v>45077</v>
       </c>
-      <c r="D462">
+      <c r="D462" t="b">
         <v>0</v>
       </c>
       <c r="E462">
-        <v>17786764.90536447</v>
-      </c>
-      <c r="F462">
+        <v>53360294.71609341</v>
+      </c>
+      <c r="F462" t="b">
         <v>0</v>
       </c>
       <c r="G462">
         <v>30.21641044652872</v>
       </c>
       <c r="H462">
-        <v>537452188.8964055</v>
+        <v>1612356566.689216</v>
       </c>
       <c r="I462">
-        <v>8530.987125339769</v>
+        <v>25592.9613760193</v>
       </c>
       <c r="J462">
-        <v>-3095293.950394012</v>
+        <v>-9285881.851182036</v>
       </c>
       <c r="K462">
-        <v>-93528672.45776278</v>
+        <v>-280586017.3732883</v>
       </c>
       <c r="L462">
-        <v>120351547.4436283</v>
+        <v>361054642.3308849</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -17818,32 +17818,32 @@
       <c r="C463" s="2">
         <v>45107</v>
       </c>
-      <c r="D463">
+      <c r="D463" t="b">
         <v>0</v>
       </c>
       <c r="E463">
-        <v>17196737.93822782</v>
-      </c>
-      <c r="F463">
+        <v>51590213.81468345</v>
+      </c>
+      <c r="F463" t="b">
         <v>0</v>
       </c>
       <c r="G463">
         <v>32.93008848638497</v>
       </c>
       <c r="H463">
-        <v>566290101.9830154</v>
+        <v>1698870305.949046</v>
       </c>
       <c r="I463">
-        <v>8988.731777508181</v>
+        <v>26966.19533252454</v>
       </c>
       <c r="J463">
-        <v>-590026.967136655</v>
+        <v>-1770080.901409961</v>
       </c>
       <c r="K463">
-        <v>-19429640.23716341</v>
+        <v>-58288920.71149009</v>
       </c>
       <c r="L463">
-        <v>48267553.32377337</v>
+        <v>144802659.9713201</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -17856,32 +17856,32 @@
       <c r="C464" s="2">
         <v>45138</v>
       </c>
-      <c r="D464">
+      <c r="D464" t="b">
         <v>0</v>
       </c>
       <c r="E464">
-        <v>16190493.01101838</v>
-      </c>
-      <c r="F464">
+        <v>48571479.03305514</v>
+      </c>
+      <c r="F464" t="b">
         <v>0</v>
       </c>
       <c r="G464">
         <v>35.00765366760461</v>
       </c>
       <c r="H464">
-        <v>566791172.0375043</v>
+        <v>1700373516.112513</v>
       </c>
       <c r="I464">
-        <v>8996.685270436576</v>
+        <v>26990.05581130973</v>
       </c>
       <c r="J464">
-        <v>-1006244.927209437</v>
+        <v>-3018734.781628311</v>
       </c>
       <c r="K464">
-        <v>-35226273.91653197</v>
+        <v>-105678821.7495959</v>
       </c>
       <c r="L464">
-        <v>35727343.97102087</v>
+        <v>107182031.9130629</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -17894,32 +17894,32 @@
       <c r="C465" s="2">
         <v>45169</v>
       </c>
-      <c r="D465">
+      <c r="D465" t="b">
         <v>0</v>
       </c>
       <c r="E465">
-        <v>14886322.05508659</v>
-      </c>
-      <c r="F465">
+        <v>44658966.16525977</v>
+      </c>
+      <c r="F465" t="b">
         <v>0</v>
       </c>
       <c r="G465">
         <v>26.83151320771734</v>
       </c>
       <c r="H465">
-        <v>399422546.8353898</v>
+        <v>1198267640.506169</v>
       </c>
       <c r="I465">
-        <v>6340.040425958568</v>
+        <v>19020.1212778757</v>
       </c>
       <c r="J465">
-        <v>-1304170.95593179</v>
+        <v>-3912512.867795371</v>
       </c>
       <c r="K465">
-        <v>-34992880.22920518</v>
+        <v>-104978640.6876155</v>
       </c>
       <c r="L465">
-        <v>-132375744.9729093</v>
+        <v>-397127234.9187282</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -17932,32 +17932,32 @@
       <c r="C466" s="2">
         <v>45199</v>
       </c>
-      <c r="D466">
+      <c r="D466" t="b">
         <v>0</v>
       </c>
       <c r="E466">
-        <v>12957221.85935049</v>
-      </c>
-      <c r="F466">
+        <v>38871665.57805147</v>
+      </c>
+      <c r="F466" t="b">
         <v>1</v>
       </c>
       <c r="G466">
         <v>29.53588197762351</v>
       </c>
       <c r="H466">
-        <v>382702975.5956595</v>
+        <v>1148108926.786979</v>
       </c>
       <c r="I466">
-        <v>6074.650406280309</v>
+        <v>18223.95121884093</v>
       </c>
       <c r="J466">
-        <v>-1929100.195736101</v>
+        <v>-5787300.587208301</v>
       </c>
       <c r="K466">
-        <v>-56977675.70427189</v>
+        <v>-170933027.1128156</v>
       </c>
       <c r="L466">
-        <v>40258104.46454159</v>
+        <v>120774313.393625</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -17970,32 +17970,32 @@
       <c r="C467" s="2">
         <v>45230</v>
       </c>
-      <c r="D467">
+      <c r="D467" t="b">
         <v>0</v>
       </c>
       <c r="E467">
-        <v>11861735.70528431</v>
-      </c>
-      <c r="F467">
+        <v>35585207.11585293</v>
+      </c>
+      <c r="F467" t="b">
         <v>0</v>
       </c>
       <c r="G467">
         <v>26.75727530339264</v>
       </c>
       <c r="H467">
-        <v>317387727.8423746</v>
+        <v>952163183.5271236</v>
       </c>
       <c r="I467">
-        <v>5037.900441942453</v>
+        <v>15113.70132582736</v>
       </c>
       <c r="J467">
-        <v>-1095486.154066179</v>
+        <v>-3286458.462198541</v>
       </c>
       <c r="K467">
-        <v>-29312224.61540356</v>
+        <v>-87936673.84621076</v>
       </c>
       <c r="L467">
-        <v>-36003023.13788138</v>
+        <v>-108009069.4136444</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -18008,32 +18008,32 @@
       <c r="C468" s="2">
         <v>45260</v>
       </c>
-      <c r="D468">
+      <c r="D468" t="b">
         <v>0</v>
       </c>
       <c r="E468">
-        <v>10755039.90702202</v>
-      </c>
-      <c r="F468">
+        <v>32265119.72106605</v>
+      </c>
+      <c r="F468" t="b">
         <v>0</v>
       </c>
       <c r="G468">
         <v>26.60127477418531</v>
       </c>
       <c r="H468">
-        <v>286097771.7740211</v>
+        <v>858293315.3220633</v>
       </c>
       <c r="I468">
-        <v>4541.234472603509</v>
+        <v>13623.70341781053</v>
       </c>
       <c r="J468">
-        <v>-1106695.798262294</v>
+        <v>-3320087.394786879</v>
       </c>
       <c r="K468">
-        <v>-29439519.02101165</v>
+        <v>-88318557.06303483</v>
       </c>
       <c r="L468">
-        <v>-1850437.047341827</v>
+        <v>-5551311.142025411</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -18046,32 +18046,32 @@
       <c r="C469" s="2">
         <v>45291</v>
       </c>
-      <c r="D469">
+      <c r="D469" t="b">
         <v>0</v>
       </c>
       <c r="E469">
-        <v>9662895.527529584</v>
-      </c>
-      <c r="F469">
+        <v>28988686.58258875</v>
+      </c>
+      <c r="F469" t="b">
         <v>1</v>
       </c>
       <c r="G469">
         <v>39.12556347492684</v>
       </c>
       <c r="H469">
-        <v>378066232.3139455</v>
+        <v>1134198696.941836</v>
       </c>
       <c r="I469">
-        <v>6001.051306570563</v>
+        <v>18003.15391971169</v>
       </c>
       <c r="J469">
-        <v>-1092144.379492432</v>
+        <v>-3276433.138477299</v>
       </c>
       <c r="K469">
-        <v>-42730764.24361573</v>
+        <v>-128192292.7308473</v>
       </c>
       <c r="L469">
-        <v>134699224.7835401</v>
+        <v>404097674.3506204</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -18084,32 +18084,32 @@
       <c r="C470" s="2">
         <v>45322</v>
       </c>
-      <c r="D470">
+      <c r="D470" t="b">
         <v>0</v>
       </c>
       <c r="E470">
-        <v>9343447.34933817</v>
-      </c>
-      <c r="F470">
+        <v>28030342.04801451</v>
+      </c>
+      <c r="F470" t="b">
         <v>0</v>
       </c>
       <c r="G470">
         <v>35.16570486701028</v>
       </c>
       <c r="H470">
-        <v>328568911.9272755</v>
+        <v>985706735.7818267</v>
       </c>
       <c r="I470">
-        <v>5215.379554401199</v>
+        <v>15646.1386632036</v>
       </c>
       <c r="J470">
-        <v>-319448.1781914141</v>
+        <v>-958344.5345742404</v>
       </c>
       <c r="K470">
-        <v>-11233620.35458338</v>
+        <v>-33700861.06375007</v>
       </c>
       <c r="L470">
-        <v>-38263700.03208656</v>
+        <v>-114791100.0962596</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -18122,32 +18122,32 @@
       <c r="C471" s="2">
         <v>45351</v>
       </c>
-      <c r="D471">
+      <c r="D471" t="b">
         <v>0</v>
       </c>
       <c r="E471">
-        <v>8989480.969250573</v>
-      </c>
-      <c r="F471">
+        <v>26968442.90775172</v>
+      </c>
+      <c r="F471" t="b">
         <v>0</v>
       </c>
       <c r="G471">
         <v>30.76900549638855</v>
       </c>
       <c r="H471">
-        <v>276597389.3525512</v>
+        <v>829792168.0576535</v>
       </c>
       <c r="I471">
-        <v>4390.434751627796</v>
+        <v>13171.30425488339</v>
       </c>
       <c r="J471">
-        <v>-353966.3800875973</v>
+        <v>-1061899.14026279</v>
       </c>
       <c r="K471">
-        <v>-10891193.49445204</v>
+        <v>-32673580.48335606</v>
       </c>
       <c r="L471">
-        <v>-41080329.08027233</v>
+        <v>-123240987.2408171</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -18160,13 +18160,13 @@
       <c r="C472" s="2">
         <v>45382</v>
       </c>
-      <c r="D472">
+      <c r="D472" t="b">
         <v>0</v>
       </c>
       <c r="E472">
         <v>8488256.407603649</v>
       </c>
-      <c r="F472">
+      <c r="F472" t="b">
         <v>1</v>
       </c>
       <c r="G472">
@@ -18179,13 +18179,13 @@
         <v>3962.504612314374</v>
       </c>
       <c r="J472">
-        <v>-501224.5616469234</v>
+        <v>-18480186.50014807</v>
       </c>
       <c r="K472">
-        <v>-14740906.27608515</v>
+        <v>-543498299.9798667</v>
       </c>
       <c r="L472">
-        <v>-12218692.50066044</v>
+        <v>-36656077.50198126</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -18198,13 +18198,13 @@
       <c r="C473" s="2">
         <v>45412</v>
       </c>
-      <c r="D473">
+      <c r="D473" t="b">
         <v>0</v>
       </c>
       <c r="E473">
         <v>8489838.365027834</v>
       </c>
-      <c r="F473">
+      <c r="F473" t="b">
         <v>0</v>
       </c>
       <c r="G473">
@@ -18236,13 +18236,13 @@
       <c r="C474" s="2">
         <v>45443</v>
       </c>
-      <c r="D474">
+      <c r="D474" t="b">
         <v>0</v>
       </c>
       <c r="E474">
         <v>7691595.757952346</v>
       </c>
-      <c r="F474">
+      <c r="F474" t="b">
         <v>0</v>
       </c>
       <c r="G474">
@@ -18274,13 +18274,13 @@
       <c r="C475" s="2">
         <v>45473</v>
       </c>
-      <c r="D475">
+      <c r="D475" t="b">
         <v>0</v>
       </c>
       <c r="E475">
         <v>6837892.546239044</v>
       </c>
-      <c r="F475">
+      <c r="F475" t="b">
         <v>1</v>
       </c>
       <c r="G475">
@@ -18312,13 +18312,13 @@
       <c r="C476" s="2">
         <v>45504</v>
       </c>
-      <c r="D476">
+      <c r="D476" t="b">
         <v>0</v>
       </c>
       <c r="E476">
         <v>7182788.892854776</v>
       </c>
-      <c r="F476">
+      <c r="F476" t="b">
         <v>0</v>
       </c>
       <c r="G476">
@@ -18350,13 +18350,13 @@
       <c r="C477" s="2">
         <v>45535</v>
       </c>
-      <c r="D477">
+      <c r="D477" t="b">
         <v>0</v>
       </c>
       <c r="E477">
         <v>5758051.697736077</v>
       </c>
-      <c r="F477">
+      <c r="F477" t="b">
         <v>1</v>
       </c>
       <c r="G477">
@@ -18388,13 +18388,13 @@
       <c r="C478" s="2">
         <v>45565</v>
       </c>
-      <c r="D478">
+      <c r="D478" t="b">
         <v>0</v>
       </c>
       <c r="E478">
         <v>5184559.42878642</v>
       </c>
-      <c r="F478">
+      <c r="F478" t="b">
         <v>0</v>
       </c>
       <c r="G478">
@@ -18426,13 +18426,13 @@
       <c r="C479" s="2">
         <v>45596</v>
       </c>
-      <c r="D479">
+      <c r="D479" t="b">
         <v>0</v>
       </c>
       <c r="E479">
         <v>4593189.866215447</v>
       </c>
-      <c r="F479">
+      <c r="F479" t="b">
         <v>0</v>
       </c>
       <c r="G479">
@@ -18464,13 +18464,13 @@
       <c r="C480" s="2">
         <v>45626</v>
       </c>
-      <c r="D480">
+      <c r="D480" t="b">
         <v>0</v>
       </c>
       <c r="E480">
         <v>3955033.06091629</v>
       </c>
-      <c r="F480">
+      <c r="F480" t="b">
         <v>1</v>
       </c>
       <c r="G480">
@@ -18502,13 +18502,13 @@
       <c r="C481" s="2">
         <v>45657</v>
       </c>
-      <c r="D481">
+      <c r="D481" t="b">
         <v>1</v>
       </c>
       <c r="E481">
         <v>3955033.06091629</v>
       </c>
-      <c r="F481">
+      <c r="F481" t="b">
         <v>0</v>
       </c>
       <c r="G481">
